--- a/templates/OT_LoS.xlsx
+++ b/templates/OT_LoS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gpm\www\GPM-TEST\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2255B98E-57F1-435B-B794-D225D5BAA32E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025E0B6-EAFC-4C78-8A44-0EB6E631C089}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="9570" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="Statut2">[2]Listes!$B$3:$B$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">OT!$A$1:$P$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -245,9 +245,6 @@
     <t>Waveform</t>
   </si>
   <si>
-    <t>Frequency</t>
-  </si>
-  <si>
     <t>Consigne 1</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>Temperature</t>
   </si>
   <si>
     <t>Camera</t>
@@ -295,6 +289,36 @@
   <si>
     <t>Comment 2</t>
   </si>
+  <si>
+    <r>
+      <t>Frequency</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF8497B0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Hz)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Temperature</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF8497B0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (°C)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +330,7 @@
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0##"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -503,6 +527,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF8497B0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -818,7 +849,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1075,6 +1106,15 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" textRotation="90"/>
     </xf>
@@ -1087,10 +1127,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1123,6 +1166,9 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1132,22 +1178,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1883,7 +1917,7 @@
   <dimension ref="A1:R241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:P28"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1911,12 +1945,12 @@
       <c r="L2" s="69"/>
       <c r="M2" s="69"/>
       <c r="N2" s="70"/>
-      <c r="O2" s="102" t="s">
+      <c r="O2" s="105" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O3" s="102"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
@@ -1945,7 +1979,7 @@
         <v>55</v>
       </c>
       <c r="N4" s="72"/>
-      <c r="O4" s="102"/>
+      <c r="O4" s="105"/>
     </row>
     <row r="5" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73" t="s">
@@ -1974,7 +2008,7 @@
         <v>56</v>
       </c>
       <c r="N5" s="73"/>
-      <c r="O5" s="102"/>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
@@ -1990,26 +2024,26 @@
       <c r="N6" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="102"/>
+      <c r="O6" s="105"/>
     </row>
     <row r="7" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
+      <c r="A7" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
-      <c r="O7" s="102"/>
+      <c r="O7" s="105"/>
     </row>
     <row r="8" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2033,33 +2067,33 @@
       <c r="P9" s="80"/>
     </row>
     <row r="10" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:18" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="84" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="81" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="81"/>
-      <c r="C11" s="81" t="s">
-        <v>61</v>
+      <c r="C11" s="128" t="s">
+        <v>76</v>
       </c>
       <c r="D11" s="81"/>
       <c r="E11" s="81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="81"/>
       <c r="G11" s="81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="81"/>
-      <c r="K11" s="81" t="s">
-        <v>65</v>
+      <c r="K11" s="128" t="s">
+        <v>77</v>
       </c>
       <c r="L11" s="81"/>
       <c r="M11" s="81" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N11" s="81"/>
       <c r="O11" s="82" t="s">
@@ -2107,24 +2141,24 @@
     </row>
     <row r="13" spans="1:18" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="81" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="81"/>
       <c r="C13" s="81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="81"/>
       <c r="E13" s="81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="81"/>
       <c r="G13" s="81" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="86"/>
       <c r="J13" s="87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K13" s="87"/>
       <c r="L13" s="88"/>
@@ -2153,22 +2187,22 @@
       </c>
       <c r="H14" s="85"/>
       <c r="I14" s="89"/>
-      <c r="J14" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
+      <c r="J14" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
       <c r="Q14" s="83"/>
       <c r="R14" s="83"/>
     </row>
     <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
@@ -2188,117 +2222,117 @@
     </row>
     <row r="17" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="105"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="105"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="105"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
     </row>
     <row r="24" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="80" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -2323,23 +2357,23 @@
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G27" s="91"/>
       <c r="H27" s="91"/>
       <c r="I27" s="90" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J27" s="90"/>
       <c r="K27" s="91"/>
       <c r="L27" s="91"/>
       <c r="M27" s="90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N27" s="90"/>
       <c r="O27" s="91"/>
@@ -2348,24 +2382,24 @@
       <c r="R27" s="66"/>
     </row>
     <row r="28" spans="1:18" s="101" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="125"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="99"/>
-      <c r="C28" s="125"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="98"/>
       <c r="E28" s="99"/>
       <c r="F28" s="98"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="125" t="s">
+      <c r="G28" s="103"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="102" t="s">
         <v>56</v>
       </c>
       <c r="J28" s="98"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="N28" s="126"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="103"/>
       <c r="O28" s="98"/>
       <c r="P28" s="99"/>
       <c r="Q28" s="100"/>
@@ -7675,162 +7709,162 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="122"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="108" t="s">
+      <c r="T2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="109"/>
-      <c r="V2" s="112" t="str">
+      <c r="U2" s="113"/>
+      <c r="V2" s="116" t="str">
         <f t="shared" ref="V2:V3" si="0">IF(ISBLANK(L2),"",L2)</f>
         <v/>
       </c>
-      <c r="W2" s="113"/>
+      <c r="W2" s="117"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="108" t="s">
+      <c r="AD2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="112" t="str">
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="116" t="str">
         <f t="shared" ref="AF2:AF3" si="1">IF(ISBLANK(V2),"",V2)</f>
         <v/>
       </c>
-      <c r="AG2" s="113"/>
+      <c r="AG2" s="117"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="108" t="s">
+      <c r="AN2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" s="109"/>
-      <c r="AP2" s="112" t="str">
+      <c r="AO2" s="113"/>
+      <c r="AP2" s="116" t="str">
         <f t="shared" ref="AP2:AP3" si="2">IF(ISBLANK(AF2),"",AF2)</f>
         <v/>
       </c>
-      <c r="AQ2" s="113"/>
+      <c r="AQ2" s="117"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="108" t="s">
+      <c r="AX2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="109"/>
-      <c r="AZ2" s="112" t="str">
+      <c r="AY2" s="113"/>
+      <c r="AZ2" s="116" t="str">
         <f t="shared" ref="AZ2:AZ3" si="3">IF(ISBLANK(AP2),"",AP2)</f>
         <v/>
       </c>
-      <c r="BA2" s="113"/>
+      <c r="BA2" s="117"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="108" t="s">
+      <c r="BH2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="BI2" s="109"/>
-      <c r="BJ2" s="112" t="str">
+      <c r="BI2" s="113"/>
+      <c r="BJ2" s="116" t="str">
         <f t="shared" ref="BJ2:BJ3" si="4">IF(ISBLANK(AZ2),"",AZ2)</f>
         <v/>
       </c>
-      <c r="BK2" s="113"/>
+      <c r="BK2" s="117"/>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
-      <c r="BR2" s="108" t="s">
+      <c r="BR2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="109"/>
-      <c r="BT2" s="112" t="str">
+      <c r="BS2" s="113"/>
+      <c r="BT2" s="116" t="str">
         <f t="shared" ref="BT2:BT3" si="5">IF(ISBLANK(BJ2),"",BJ2)</f>
         <v/>
       </c>
-      <c r="BU2" s="113"/>
+      <c r="BU2" s="117"/>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
       <c r="BX2" s="1"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
-      <c r="CB2" s="108" t="s">
+      <c r="CB2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" s="109"/>
-      <c r="CD2" s="112" t="str">
+      <c r="CC2" s="113"/>
+      <c r="CD2" s="116" t="str">
         <f t="shared" ref="CD2:CD3" si="6">IF(ISBLANK(BT2),"",BT2)</f>
         <v/>
       </c>
-      <c r="CE2" s="113"/>
+      <c r="CE2" s="117"/>
       <c r="CF2" s="1"/>
       <c r="CG2" s="1"/>
       <c r="CH2" s="1"/>
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
-      <c r="CL2" s="108" t="s">
+      <c r="CL2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="CM2" s="109"/>
-      <c r="CN2" s="112" t="str">
+      <c r="CM2" s="113"/>
+      <c r="CN2" s="116" t="str">
         <f t="shared" ref="CN2:CN3" si="7">IF(ISBLANK(CD2),"",CD2)</f>
         <v/>
       </c>
-      <c r="CO2" s="113"/>
+      <c r="CO2" s="117"/>
       <c r="CP2" s="1"/>
       <c r="CQ2" s="1"/>
       <c r="CR2" s="1"/>
       <c r="CS2" s="1"/>
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
-      <c r="CV2" s="108" t="s">
+      <c r="CV2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="CW2" s="109"/>
-      <c r="CX2" s="112" t="str">
+      <c r="CW2" s="113"/>
+      <c r="CX2" s="116" t="str">
         <f t="shared" ref="CX2:CX3" si="8">IF(ISBLANK(CN2),"",CN2)</f>
         <v/>
       </c>
-      <c r="CY2" s="113"/>
+      <c r="CY2" s="117"/>
       <c r="CZ2" s="1"/>
       <c r="DA2" s="1"/>
       <c r="DB2" s="1"/>
       <c r="DC2" s="1"/>
       <c r="DD2" s="1"/>
       <c r="DE2" s="1"/>
-      <c r="DF2" s="108" t="s">
+      <c r="DF2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="DG2" s="109"/>
-      <c r="DH2" s="112" t="str">
+      <c r="DG2" s="113"/>
+      <c r="DH2" s="116" t="str">
         <f t="shared" ref="DH2:DH3" si="9">IF(ISBLANK(CX2),"",CX2)</f>
         <v/>
       </c>
-      <c r="DI2" s="113"/>
+      <c r="DI2" s="117"/>
     </row>
     <row r="3" spans="1:113" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -7842,140 +7876,140 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="119"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="114" t="str">
+      <c r="T3" s="114"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="118" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W3" s="115"/>
+      <c r="W3" s="119"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="114" t="str">
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="118" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG3" s="115"/>
+      <c r="AG3" s="119"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="110"/>
-      <c r="AO3" s="111"/>
-      <c r="AP3" s="114" t="str">
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="115"/>
+      <c r="AP3" s="118" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AQ3" s="115"/>
+      <c r="AQ3" s="119"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
-      <c r="AX3" s="110"/>
-      <c r="AY3" s="111"/>
-      <c r="AZ3" s="114" t="str">
+      <c r="AX3" s="114"/>
+      <c r="AY3" s="115"/>
+      <c r="AZ3" s="118" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BA3" s="115"/>
+      <c r="BA3" s="119"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="110"/>
-      <c r="BI3" s="111"/>
-      <c r="BJ3" s="114" t="str">
+      <c r="BH3" s="114"/>
+      <c r="BI3" s="115"/>
+      <c r="BJ3" s="118" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BK3" s="115"/>
+      <c r="BK3" s="119"/>
       <c r="BL3" s="1"/>
       <c r="BM3" s="1"/>
       <c r="BN3" s="1"/>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
-      <c r="BR3" s="110"/>
-      <c r="BS3" s="111"/>
-      <c r="BT3" s="114" t="str">
+      <c r="BR3" s="114"/>
+      <c r="BS3" s="115"/>
+      <c r="BT3" s="118" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BU3" s="115"/>
+      <c r="BU3" s="119"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
       <c r="BX3" s="1"/>
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
       <c r="CA3" s="1"/>
-      <c r="CB3" s="110"/>
-      <c r="CC3" s="111"/>
-      <c r="CD3" s="114" t="str">
+      <c r="CB3" s="114"/>
+      <c r="CC3" s="115"/>
+      <c r="CD3" s="118" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="CE3" s="115"/>
+      <c r="CE3" s="119"/>
       <c r="CF3" s="1"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1"/>
       <c r="CK3" s="1"/>
-      <c r="CL3" s="110"/>
-      <c r="CM3" s="111"/>
-      <c r="CN3" s="114" t="str">
+      <c r="CL3" s="114"/>
+      <c r="CM3" s="115"/>
+      <c r="CN3" s="118" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="CO3" s="115"/>
+      <c r="CO3" s="119"/>
       <c r="CP3" s="1"/>
       <c r="CQ3" s="1"/>
       <c r="CR3" s="1"/>
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
-      <c r="CV3" s="110"/>
-      <c r="CW3" s="111"/>
-      <c r="CX3" s="114" t="str">
+      <c r="CV3" s="114"/>
+      <c r="CW3" s="115"/>
+      <c r="CX3" s="118" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CY3" s="115"/>
+      <c r="CY3" s="119"/>
       <c r="CZ3" s="1"/>
       <c r="DA3" s="1"/>
       <c r="DB3" s="1"/>
       <c r="DC3" s="1"/>
       <c r="DD3" s="1"/>
       <c r="DE3" s="1"/>
-      <c r="DF3" s="110"/>
-      <c r="DG3" s="111"/>
-      <c r="DH3" s="114" t="str">
+      <c r="DF3" s="114"/>
+      <c r="DG3" s="115"/>
+      <c r="DH3" s="118" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="DI3" s="115"/>
+      <c r="DI3" s="119"/>
     </row>
     <row r="4" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -7988,214 +8022,214 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="125"/>
       <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
       <c r="M4" s="6"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="116" t="str">
+      <c r="Q4" s="120" t="str">
         <f>IF(ISBLANK(G4),"",G4)</f>
         <v/>
       </c>
-      <c r="R4" s="116"/>
+      <c r="R4" s="120"/>
       <c r="S4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="117" t="str">
+      <c r="U4" s="121" t="str">
         <f t="shared" ref="U4:U6" si="10">IF(ISBLANK(K4),"",K4)</f>
         <v/>
       </c>
-      <c r="V4" s="117"/>
+      <c r="V4" s="121"/>
       <c r="W4" s="6"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="116" t="str">
+      <c r="AA4" s="120" t="str">
         <f>IF(ISBLANK(Q4),"",Q4)</f>
         <v/>
       </c>
-      <c r="AB4" s="116"/>
+      <c r="AB4" s="120"/>
       <c r="AC4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="117" t="str">
+      <c r="AE4" s="121" t="str">
         <f t="shared" ref="AE4:AE6" si="11">IF(ISBLANK(U4),"",U4)</f>
         <v/>
       </c>
-      <c r="AF4" s="117"/>
+      <c r="AF4" s="121"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="116" t="str">
+      <c r="AK4" s="120" t="str">
         <f>IF(ISBLANK(AA4),"",AA4)</f>
         <v/>
       </c>
-      <c r="AL4" s="116"/>
+      <c r="AL4" s="120"/>
       <c r="AM4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="117" t="str">
+      <c r="AO4" s="121" t="str">
         <f t="shared" ref="AO4:AO6" si="12">IF(ISBLANK(AE4),"",AE4)</f>
         <v/>
       </c>
-      <c r="AP4" s="117"/>
+      <c r="AP4" s="121"/>
       <c r="AQ4" s="6"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AT4" s="1"/>
-      <c r="AU4" s="116" t="str">
+      <c r="AU4" s="120" t="str">
         <f>IF(ISBLANK(AK4),"",AK4)</f>
         <v/>
       </c>
-      <c r="AV4" s="116"/>
+      <c r="AV4" s="120"/>
       <c r="AW4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="117" t="str">
+      <c r="AY4" s="121" t="str">
         <f t="shared" ref="AY4:AY6" si="13">IF(ISBLANK(AO4),"",AO4)</f>
         <v/>
       </c>
-      <c r="AZ4" s="117"/>
+      <c r="AZ4" s="121"/>
       <c r="BA4" s="6"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="116" t="str">
+      <c r="BE4" s="120" t="str">
         <f>IF(ISBLANK(AU4),"",AU4)</f>
         <v/>
       </c>
-      <c r="BF4" s="116"/>
+      <c r="BF4" s="120"/>
       <c r="BG4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BH4" s="1"/>
-      <c r="BI4" s="117" t="str">
+      <c r="BI4" s="121" t="str">
         <f t="shared" ref="BI4:BI6" si="14">IF(ISBLANK(AY4),"",AY4)</f>
         <v/>
       </c>
-      <c r="BJ4" s="117"/>
+      <c r="BJ4" s="121"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BN4" s="1"/>
-      <c r="BO4" s="116" t="str">
+      <c r="BO4" s="120" t="str">
         <f>IF(ISBLANK(BE4),"",BE4)</f>
         <v/>
       </c>
-      <c r="BP4" s="116"/>
+      <c r="BP4" s="120"/>
       <c r="BQ4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BR4" s="1"/>
-      <c r="BS4" s="117" t="str">
+      <c r="BS4" s="121" t="str">
         <f t="shared" ref="BS4:BS6" si="15">IF(ISBLANK(BI4),"",BI4)</f>
         <v/>
       </c>
-      <c r="BT4" s="117"/>
+      <c r="BT4" s="121"/>
       <c r="BU4" s="6"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX4" s="1"/>
-      <c r="BY4" s="116" t="str">
+      <c r="BY4" s="120" t="str">
         <f>IF(ISBLANK(BO4),"",BO4)</f>
         <v/>
       </c>
-      <c r="BZ4" s="116"/>
+      <c r="BZ4" s="120"/>
       <c r="CA4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="CB4" s="1"/>
-      <c r="CC4" s="117" t="str">
+      <c r="CC4" s="121" t="str">
         <f t="shared" ref="CC4:CC6" si="16">IF(ISBLANK(BS4),"",BS4)</f>
         <v/>
       </c>
-      <c r="CD4" s="117"/>
+      <c r="CD4" s="121"/>
       <c r="CE4" s="6"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CH4" s="1"/>
-      <c r="CI4" s="116" t="str">
+      <c r="CI4" s="120" t="str">
         <f>IF(ISBLANK(BY4),"",BY4)</f>
         <v/>
       </c>
-      <c r="CJ4" s="116"/>
+      <c r="CJ4" s="120"/>
       <c r="CK4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="CL4" s="1"/>
-      <c r="CM4" s="117" t="str">
+      <c r="CM4" s="121" t="str">
         <f t="shared" ref="CM4:CM6" si="17">IF(ISBLANK(CC4),"",CC4)</f>
         <v/>
       </c>
-      <c r="CN4" s="117"/>
+      <c r="CN4" s="121"/>
       <c r="CO4" s="6"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CR4" s="1"/>
-      <c r="CS4" s="116" t="str">
+      <c r="CS4" s="120" t="str">
         <f>IF(ISBLANK(CI4),"",CI4)</f>
         <v/>
       </c>
-      <c r="CT4" s="116"/>
+      <c r="CT4" s="120"/>
       <c r="CU4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="CV4" s="1"/>
-      <c r="CW4" s="117" t="str">
+      <c r="CW4" s="121" t="str">
         <f t="shared" ref="CW4:CW6" si="18">IF(ISBLANK(CM4),"",CM4)</f>
         <v/>
       </c>
-      <c r="CX4" s="117"/>
+      <c r="CX4" s="121"/>
       <c r="CY4" s="6"/>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="DB4" s="1"/>
-      <c r="DC4" s="116" t="str">
+      <c r="DC4" s="120" t="str">
         <f>IF(ISBLANK(CS4),"",CS4)</f>
         <v/>
       </c>
-      <c r="DD4" s="116"/>
+      <c r="DD4" s="120"/>
       <c r="DE4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="DF4" s="1"/>
-      <c r="DG4" s="117" t="str">
+      <c r="DG4" s="121" t="str">
         <f t="shared" ref="DG4:DG6" si="19">IF(ISBLANK(CW4),"",CW4)</f>
         <v/>
       </c>
-      <c r="DH4" s="117"/>
+      <c r="DH4" s="121"/>
       <c r="DI4" s="6"/>
     </row>
     <row r="5" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8207,214 +8241,214 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="125"/>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
       <c r="M5" s="6"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="121" t="str">
+      <c r="Q5" s="122" t="str">
         <f t="shared" ref="Q5:Q6" si="20">IF(ISBLANK(G5),"",G5)</f>
         <v/>
       </c>
-      <c r="R5" s="121"/>
+      <c r="R5" s="122"/>
       <c r="S5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="106" t="str">
+      <c r="U5" s="111" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V5" s="106"/>
+      <c r="V5" s="111"/>
       <c r="W5" s="6"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="121" t="str">
+      <c r="AA5" s="122" t="str">
         <f t="shared" ref="AA5:AA6" si="21">IF(ISBLANK(Q5),"",Q5)</f>
         <v/>
       </c>
-      <c r="AB5" s="121"/>
+      <c r="AB5" s="122"/>
       <c r="AC5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="106" t="str">
+      <c r="AE5" s="111" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF5" s="106"/>
+      <c r="AF5" s="111"/>
       <c r="AG5" s="6"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="121" t="str">
+      <c r="AK5" s="122" t="str">
         <f t="shared" ref="AK5:AK6" si="22">IF(ISBLANK(AA5),"",AA5)</f>
         <v/>
       </c>
-      <c r="AL5" s="121"/>
+      <c r="AL5" s="122"/>
       <c r="AM5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="106" t="str">
+      <c r="AO5" s="111" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP5" s="106"/>
+      <c r="AP5" s="111"/>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AT5" s="1"/>
-      <c r="AU5" s="121" t="str">
+      <c r="AU5" s="122" t="str">
         <f t="shared" ref="AU5:AU6" si="23">IF(ISBLANK(AK5),"",AK5)</f>
         <v/>
       </c>
-      <c r="AV5" s="121"/>
+      <c r="AV5" s="122"/>
       <c r="AW5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AX5" s="1"/>
-      <c r="AY5" s="106" t="str">
+      <c r="AY5" s="111" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ5" s="106"/>
+      <c r="AZ5" s="111"/>
       <c r="BA5" s="6"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BD5" s="1"/>
-      <c r="BE5" s="121" t="str">
+      <c r="BE5" s="122" t="str">
         <f t="shared" ref="BE5:BE6" si="24">IF(ISBLANK(AU5),"",AU5)</f>
         <v/>
       </c>
-      <c r="BF5" s="121"/>
+      <c r="BF5" s="122"/>
       <c r="BG5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BH5" s="1"/>
-      <c r="BI5" s="106" t="str">
+      <c r="BI5" s="111" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ5" s="106"/>
+      <c r="BJ5" s="111"/>
       <c r="BK5" s="6"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BN5" s="1"/>
-      <c r="BO5" s="121" t="str">
+      <c r="BO5" s="122" t="str">
         <f t="shared" ref="BO5:BO6" si="25">IF(ISBLANK(BE5),"",BE5)</f>
         <v/>
       </c>
-      <c r="BP5" s="121"/>
+      <c r="BP5" s="122"/>
       <c r="BQ5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BR5" s="1"/>
-      <c r="BS5" s="106" t="str">
+      <c r="BS5" s="111" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT5" s="106"/>
+      <c r="BT5" s="111"/>
       <c r="BU5" s="6"/>
       <c r="BV5" s="1"/>
       <c r="BW5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BX5" s="1"/>
-      <c r="BY5" s="121" t="str">
+      <c r="BY5" s="122" t="str">
         <f t="shared" ref="BY5:BY6" si="26">IF(ISBLANK(BO5),"",BO5)</f>
         <v/>
       </c>
-      <c r="BZ5" s="121"/>
+      <c r="BZ5" s="122"/>
       <c r="CA5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="CB5" s="1"/>
-      <c r="CC5" s="106" t="str">
+      <c r="CC5" s="111" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD5" s="106"/>
+      <c r="CD5" s="111"/>
       <c r="CE5" s="6"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CH5" s="1"/>
-      <c r="CI5" s="121" t="str">
+      <c r="CI5" s="122" t="str">
         <f t="shared" ref="CI5:CI6" si="27">IF(ISBLANK(BY5),"",BY5)</f>
         <v/>
       </c>
-      <c r="CJ5" s="121"/>
+      <c r="CJ5" s="122"/>
       <c r="CK5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="CL5" s="1"/>
-      <c r="CM5" s="106" t="str">
+      <c r="CM5" s="111" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN5" s="106"/>
+      <c r="CN5" s="111"/>
       <c r="CO5" s="6"/>
       <c r="CP5" s="1"/>
       <c r="CQ5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CR5" s="1"/>
-      <c r="CS5" s="121" t="str">
+      <c r="CS5" s="122" t="str">
         <f t="shared" ref="CS5:CS6" si="28">IF(ISBLANK(CI5),"",CI5)</f>
         <v/>
       </c>
-      <c r="CT5" s="121"/>
+      <c r="CT5" s="122"/>
       <c r="CU5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="CV5" s="1"/>
-      <c r="CW5" s="106" t="str">
+      <c r="CW5" s="111" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX5" s="106"/>
+      <c r="CX5" s="111"/>
       <c r="CY5" s="6"/>
       <c r="CZ5" s="1"/>
       <c r="DA5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DB5" s="1"/>
-      <c r="DC5" s="121" t="str">
+      <c r="DC5" s="122" t="str">
         <f t="shared" ref="DC5:DC6" si="29">IF(ISBLANK(CS5),"",CS5)</f>
         <v/>
       </c>
-      <c r="DD5" s="121"/>
+      <c r="DD5" s="122"/>
       <c r="DE5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="DF5" s="1"/>
-      <c r="DG5" s="106" t="str">
+      <c r="DG5" s="111" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH5" s="106"/>
+      <c r="DH5" s="111"/>
       <c r="DI5" s="6"/>
     </row>
     <row r="6" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8428,214 +8462,214 @@
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
       <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
       <c r="M6" s="6"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="107" t="str">
+      <c r="Q6" s="110" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="R6" s="107"/>
+      <c r="R6" s="110"/>
       <c r="S6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="106" t="str">
+      <c r="U6" s="111" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V6" s="106"/>
+      <c r="V6" s="111"/>
       <c r="W6" s="6"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="107" t="str">
+      <c r="AA6" s="110" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AB6" s="107"/>
+      <c r="AB6" s="110"/>
       <c r="AC6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="106" t="str">
+      <c r="AE6" s="111" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF6" s="106"/>
+      <c r="AF6" s="111"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="107" t="str">
+      <c r="AK6" s="110" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AL6" s="107"/>
+      <c r="AL6" s="110"/>
       <c r="AM6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="106" t="str">
+      <c r="AO6" s="111" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP6" s="106"/>
+      <c r="AP6" s="111"/>
       <c r="AQ6" s="6"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="107" t="str">
+      <c r="AU6" s="110" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AV6" s="107"/>
+      <c r="AV6" s="110"/>
       <c r="AW6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AX6" s="1"/>
-      <c r="AY6" s="106" t="str">
+      <c r="AY6" s="111" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ6" s="106"/>
+      <c r="AZ6" s="111"/>
       <c r="BA6" s="6"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BD6" s="1"/>
-      <c r="BE6" s="107" t="str">
+      <c r="BE6" s="110" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BF6" s="107"/>
+      <c r="BF6" s="110"/>
       <c r="BG6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BH6" s="1"/>
-      <c r="BI6" s="106" t="str">
+      <c r="BI6" s="111" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ6" s="106"/>
+      <c r="BJ6" s="111"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="1"/>
       <c r="BM6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BN6" s="1"/>
-      <c r="BO6" s="107" t="str">
+      <c r="BO6" s="110" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BP6" s="107"/>
+      <c r="BP6" s="110"/>
       <c r="BQ6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BR6" s="1"/>
-      <c r="BS6" s="106" t="str">
+      <c r="BS6" s="111" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT6" s="106"/>
+      <c r="BT6" s="111"/>
       <c r="BU6" s="6"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BX6" s="1"/>
-      <c r="BY6" s="107" t="str">
+      <c r="BY6" s="110" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BZ6" s="107"/>
+      <c r="BZ6" s="110"/>
       <c r="CA6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CB6" s="1"/>
-      <c r="CC6" s="106" t="str">
+      <c r="CC6" s="111" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD6" s="106"/>
+      <c r="CD6" s="111"/>
       <c r="CE6" s="6"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CH6" s="1"/>
-      <c r="CI6" s="107" t="str">
+      <c r="CI6" s="110" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="CJ6" s="107"/>
+      <c r="CJ6" s="110"/>
       <c r="CK6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CL6" s="1"/>
-      <c r="CM6" s="106" t="str">
+      <c r="CM6" s="111" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN6" s="106"/>
+      <c r="CN6" s="111"/>
       <c r="CO6" s="6"/>
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CR6" s="1"/>
-      <c r="CS6" s="107" t="str">
+      <c r="CS6" s="110" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="CT6" s="107"/>
+      <c r="CT6" s="110"/>
       <c r="CU6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CV6" s="1"/>
-      <c r="CW6" s="106" t="str">
+      <c r="CW6" s="111" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX6" s="106"/>
+      <c r="CX6" s="111"/>
       <c r="CY6" s="6"/>
       <c r="CZ6" s="1"/>
       <c r="DA6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="DB6" s="1"/>
-      <c r="DC6" s="107" t="str">
+      <c r="DC6" s="110" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="DD6" s="107"/>
+      <c r="DD6" s="110"/>
       <c r="DE6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="DF6" s="1"/>
-      <c r="DG6" s="106" t="str">
+      <c r="DG6" s="111" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH6" s="106"/>
+      <c r="DH6" s="111"/>
       <c r="DI6" s="6"/>
     </row>
     <row r="7" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11697,11 +11731,11 @@
       <c r="DI32" s="29"/>
     </row>
     <row r="33" spans="1:113" s="19" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="119" t="s">
+      <c r="A33" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
@@ -12730,146 +12764,146 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124" t="str">
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="109"/>
+      <c r="N42" s="109" t="str">
         <f>IF(ISBLANK(D42),"",D42)</f>
         <v/>
       </c>
-      <c r="O42" s="124"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="124"/>
-      <c r="R42" s="124"/>
-      <c r="S42" s="124"/>
-      <c r="T42" s="124"/>
-      <c r="U42" s="124"/>
-      <c r="V42" s="124"/>
-      <c r="W42" s="124"/>
-      <c r="X42" s="124" t="str">
+      <c r="O42" s="109"/>
+      <c r="P42" s="109"/>
+      <c r="Q42" s="109"/>
+      <c r="R42" s="109"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="109"/>
+      <c r="U42" s="109"/>
+      <c r="V42" s="109"/>
+      <c r="W42" s="109"/>
+      <c r="X42" s="109" t="str">
         <f t="shared" ref="X42" si="33">IF(ISBLANK(N42),"",N42)</f>
         <v/>
       </c>
-      <c r="Y42" s="124"/>
-      <c r="Z42" s="124"/>
-      <c r="AA42" s="124"/>
-      <c r="AB42" s="124"/>
-      <c r="AC42" s="124"/>
-      <c r="AD42" s="124"/>
-      <c r="AE42" s="124"/>
-      <c r="AF42" s="124"/>
-      <c r="AG42" s="124"/>
-      <c r="AH42" s="124" t="str">
+      <c r="Y42" s="109"/>
+      <c r="Z42" s="109"/>
+      <c r="AA42" s="109"/>
+      <c r="AB42" s="109"/>
+      <c r="AC42" s="109"/>
+      <c r="AD42" s="109"/>
+      <c r="AE42" s="109"/>
+      <c r="AF42" s="109"/>
+      <c r="AG42" s="109"/>
+      <c r="AH42" s="109" t="str">
         <f t="shared" ref="AH42" si="34">IF(ISBLANK(X42),"",X42)</f>
         <v/>
       </c>
-      <c r="AI42" s="124"/>
-      <c r="AJ42" s="124"/>
-      <c r="AK42" s="124"/>
-      <c r="AL42" s="124"/>
-      <c r="AM42" s="124"/>
-      <c r="AN42" s="124"/>
-      <c r="AO42" s="124"/>
-      <c r="AP42" s="124"/>
-      <c r="AQ42" s="124"/>
-      <c r="AR42" s="124" t="str">
+      <c r="AI42" s="109"/>
+      <c r="AJ42" s="109"/>
+      <c r="AK42" s="109"/>
+      <c r="AL42" s="109"/>
+      <c r="AM42" s="109"/>
+      <c r="AN42" s="109"/>
+      <c r="AO42" s="109"/>
+      <c r="AP42" s="109"/>
+      <c r="AQ42" s="109"/>
+      <c r="AR42" s="109" t="str">
         <f t="shared" ref="AR42" si="35">IF(ISBLANK(AH42),"",AH42)</f>
         <v/>
       </c>
-      <c r="AS42" s="124"/>
-      <c r="AT42" s="124"/>
-      <c r="AU42" s="124"/>
-      <c r="AV42" s="124"/>
-      <c r="AW42" s="124"/>
-      <c r="AX42" s="124"/>
-      <c r="AY42" s="124"/>
-      <c r="AZ42" s="124"/>
-      <c r="BA42" s="124"/>
-      <c r="BB42" s="124" t="str">
+      <c r="AS42" s="109"/>
+      <c r="AT42" s="109"/>
+      <c r="AU42" s="109"/>
+      <c r="AV42" s="109"/>
+      <c r="AW42" s="109"/>
+      <c r="AX42" s="109"/>
+      <c r="AY42" s="109"/>
+      <c r="AZ42" s="109"/>
+      <c r="BA42" s="109"/>
+      <c r="BB42" s="109" t="str">
         <f t="shared" ref="BB42" si="36">IF(ISBLANK(AR42),"",AR42)</f>
         <v/>
       </c>
-      <c r="BC42" s="124"/>
-      <c r="BD42" s="124"/>
-      <c r="BE42" s="124"/>
-      <c r="BF42" s="124"/>
-      <c r="BG42" s="124"/>
-      <c r="BH42" s="124"/>
-      <c r="BI42" s="124"/>
-      <c r="BJ42" s="124"/>
-      <c r="BK42" s="124"/>
-      <c r="BL42" s="124" t="str">
+      <c r="BC42" s="109"/>
+      <c r="BD42" s="109"/>
+      <c r="BE42" s="109"/>
+      <c r="BF42" s="109"/>
+      <c r="BG42" s="109"/>
+      <c r="BH42" s="109"/>
+      <c r="BI42" s="109"/>
+      <c r="BJ42" s="109"/>
+      <c r="BK42" s="109"/>
+      <c r="BL42" s="109" t="str">
         <f t="shared" ref="BL42" si="37">IF(ISBLANK(BB42),"",BB42)</f>
         <v/>
       </c>
-      <c r="BM42" s="124"/>
-      <c r="BN42" s="124"/>
-      <c r="BO42" s="124"/>
-      <c r="BP42" s="124"/>
-      <c r="BQ42" s="124"/>
-      <c r="BR42" s="124"/>
-      <c r="BS42" s="124"/>
-      <c r="BT42" s="124"/>
-      <c r="BU42" s="124"/>
-      <c r="BV42" s="124" t="str">
+      <c r="BM42" s="109"/>
+      <c r="BN42" s="109"/>
+      <c r="BO42" s="109"/>
+      <c r="BP42" s="109"/>
+      <c r="BQ42" s="109"/>
+      <c r="BR42" s="109"/>
+      <c r="BS42" s="109"/>
+      <c r="BT42" s="109"/>
+      <c r="BU42" s="109"/>
+      <c r="BV42" s="109" t="str">
         <f t="shared" ref="BV42" si="38">IF(ISBLANK(BL42),"",BL42)</f>
         <v/>
       </c>
-      <c r="BW42" s="124"/>
-      <c r="BX42" s="124"/>
-      <c r="BY42" s="124"/>
-      <c r="BZ42" s="124"/>
-      <c r="CA42" s="124"/>
-      <c r="CB42" s="124"/>
-      <c r="CC42" s="124"/>
-      <c r="CD42" s="124"/>
-      <c r="CE42" s="124"/>
-      <c r="CF42" s="124" t="str">
+      <c r="BW42" s="109"/>
+      <c r="BX42" s="109"/>
+      <c r="BY42" s="109"/>
+      <c r="BZ42" s="109"/>
+      <c r="CA42" s="109"/>
+      <c r="CB42" s="109"/>
+      <c r="CC42" s="109"/>
+      <c r="CD42" s="109"/>
+      <c r="CE42" s="109"/>
+      <c r="CF42" s="109" t="str">
         <f t="shared" ref="CF42" si="39">IF(ISBLANK(BV42),"",BV42)</f>
         <v/>
       </c>
-      <c r="CG42" s="124"/>
-      <c r="CH42" s="124"/>
-      <c r="CI42" s="124"/>
-      <c r="CJ42" s="124"/>
-      <c r="CK42" s="124"/>
-      <c r="CL42" s="124"/>
-      <c r="CM42" s="124"/>
-      <c r="CN42" s="124"/>
-      <c r="CO42" s="124"/>
-      <c r="CP42" s="124" t="str">
+      <c r="CG42" s="109"/>
+      <c r="CH42" s="109"/>
+      <c r="CI42" s="109"/>
+      <c r="CJ42" s="109"/>
+      <c r="CK42" s="109"/>
+      <c r="CL42" s="109"/>
+      <c r="CM42" s="109"/>
+      <c r="CN42" s="109"/>
+      <c r="CO42" s="109"/>
+      <c r="CP42" s="109" t="str">
         <f t="shared" ref="CP42" si="40">IF(ISBLANK(CF42),"",CF42)</f>
         <v/>
       </c>
-      <c r="CQ42" s="124"/>
-      <c r="CR42" s="124"/>
-      <c r="CS42" s="124"/>
-      <c r="CT42" s="124"/>
-      <c r="CU42" s="124"/>
-      <c r="CV42" s="124"/>
-      <c r="CW42" s="124"/>
-      <c r="CX42" s="124"/>
-      <c r="CY42" s="124"/>
-      <c r="CZ42" s="124" t="str">
+      <c r="CQ42" s="109"/>
+      <c r="CR42" s="109"/>
+      <c r="CS42" s="109"/>
+      <c r="CT42" s="109"/>
+      <c r="CU42" s="109"/>
+      <c r="CV42" s="109"/>
+      <c r="CW42" s="109"/>
+      <c r="CX42" s="109"/>
+      <c r="CY42" s="109"/>
+      <c r="CZ42" s="109" t="str">
         <f>IF(ISBLANK(CP42),"",CP42)</f>
         <v/>
       </c>
-      <c r="DA42" s="124"/>
-      <c r="DB42" s="124"/>
-      <c r="DC42" s="124"/>
-      <c r="DD42" s="124"/>
-      <c r="DE42" s="124"/>
-      <c r="DF42" s="124"/>
-      <c r="DG42" s="124"/>
-      <c r="DH42" s="124"/>
-      <c r="DI42" s="124"/>
+      <c r="DA42" s="109"/>
+      <c r="DB42" s="109"/>
+      <c r="DC42" s="109"/>
+      <c r="DD42" s="109"/>
+      <c r="DE42" s="109"/>
+      <c r="DF42" s="109"/>
+      <c r="DG42" s="109"/>
+      <c r="DH42" s="109"/>
+      <c r="DI42" s="109"/>
     </row>
     <row r="43" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -12877,461 +12911,461 @@
         <v>45</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="124"/>
-      <c r="O43" s="124"/>
-      <c r="P43" s="124"/>
-      <c r="Q43" s="124"/>
-      <c r="R43" s="124"/>
-      <c r="S43" s="124"/>
-      <c r="T43" s="124"/>
-      <c r="U43" s="124"/>
-      <c r="V43" s="124"/>
-      <c r="W43" s="124"/>
-      <c r="X43" s="124"/>
-      <c r="Y43" s="124"/>
-      <c r="Z43" s="124"/>
-      <c r="AA43" s="124"/>
-      <c r="AB43" s="124"/>
-      <c r="AC43" s="124"/>
-      <c r="AD43" s="124"/>
-      <c r="AE43" s="124"/>
-      <c r="AF43" s="124"/>
-      <c r="AG43" s="124"/>
-      <c r="AH43" s="124"/>
-      <c r="AI43" s="124"/>
-      <c r="AJ43" s="124"/>
-      <c r="AK43" s="124"/>
-      <c r="AL43" s="124"/>
-      <c r="AM43" s="124"/>
-      <c r="AN43" s="124"/>
-      <c r="AO43" s="124"/>
-      <c r="AP43" s="124"/>
-      <c r="AQ43" s="124"/>
-      <c r="AR43" s="124"/>
-      <c r="AS43" s="124"/>
-      <c r="AT43" s="124"/>
-      <c r="AU43" s="124"/>
-      <c r="AV43" s="124"/>
-      <c r="AW43" s="124"/>
-      <c r="AX43" s="124"/>
-      <c r="AY43" s="124"/>
-      <c r="AZ43" s="124"/>
-      <c r="BA43" s="124"/>
-      <c r="BB43" s="124"/>
-      <c r="BC43" s="124"/>
-      <c r="BD43" s="124"/>
-      <c r="BE43" s="124"/>
-      <c r="BF43" s="124"/>
-      <c r="BG43" s="124"/>
-      <c r="BH43" s="124"/>
-      <c r="BI43" s="124"/>
-      <c r="BJ43" s="124"/>
-      <c r="BK43" s="124"/>
-      <c r="BL43" s="124"/>
-      <c r="BM43" s="124"/>
-      <c r="BN43" s="124"/>
-      <c r="BO43" s="124"/>
-      <c r="BP43" s="124"/>
-      <c r="BQ43" s="124"/>
-      <c r="BR43" s="124"/>
-      <c r="BS43" s="124"/>
-      <c r="BT43" s="124"/>
-      <c r="BU43" s="124"/>
-      <c r="BV43" s="124"/>
-      <c r="BW43" s="124"/>
-      <c r="BX43" s="124"/>
-      <c r="BY43" s="124"/>
-      <c r="BZ43" s="124"/>
-      <c r="CA43" s="124"/>
-      <c r="CB43" s="124"/>
-      <c r="CC43" s="124"/>
-      <c r="CD43" s="124"/>
-      <c r="CE43" s="124"/>
-      <c r="CF43" s="124"/>
-      <c r="CG43" s="124"/>
-      <c r="CH43" s="124"/>
-      <c r="CI43" s="124"/>
-      <c r="CJ43" s="124"/>
-      <c r="CK43" s="124"/>
-      <c r="CL43" s="124"/>
-      <c r="CM43" s="124"/>
-      <c r="CN43" s="124"/>
-      <c r="CO43" s="124"/>
-      <c r="CP43" s="124"/>
-      <c r="CQ43" s="124"/>
-      <c r="CR43" s="124"/>
-      <c r="CS43" s="124"/>
-      <c r="CT43" s="124"/>
-      <c r="CU43" s="124"/>
-      <c r="CV43" s="124"/>
-      <c r="CW43" s="124"/>
-      <c r="CX43" s="124"/>
-      <c r="CY43" s="124"/>
-      <c r="CZ43" s="124"/>
-      <c r="DA43" s="124"/>
-      <c r="DB43" s="124"/>
-      <c r="DC43" s="124"/>
-      <c r="DD43" s="124"/>
-      <c r="DE43" s="124"/>
-      <c r="DF43" s="124"/>
-      <c r="DG43" s="124"/>
-      <c r="DH43" s="124"/>
-      <c r="DI43" s="124"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="109"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109"/>
+      <c r="U43" s="109"/>
+      <c r="V43" s="109"/>
+      <c r="W43" s="109"/>
+      <c r="X43" s="109"/>
+      <c r="Y43" s="109"/>
+      <c r="Z43" s="109"/>
+      <c r="AA43" s="109"/>
+      <c r="AB43" s="109"/>
+      <c r="AC43" s="109"/>
+      <c r="AD43" s="109"/>
+      <c r="AE43" s="109"/>
+      <c r="AF43" s="109"/>
+      <c r="AG43" s="109"/>
+      <c r="AH43" s="109"/>
+      <c r="AI43" s="109"/>
+      <c r="AJ43" s="109"/>
+      <c r="AK43" s="109"/>
+      <c r="AL43" s="109"/>
+      <c r="AM43" s="109"/>
+      <c r="AN43" s="109"/>
+      <c r="AO43" s="109"/>
+      <c r="AP43" s="109"/>
+      <c r="AQ43" s="109"/>
+      <c r="AR43" s="109"/>
+      <c r="AS43" s="109"/>
+      <c r="AT43" s="109"/>
+      <c r="AU43" s="109"/>
+      <c r="AV43" s="109"/>
+      <c r="AW43" s="109"/>
+      <c r="AX43" s="109"/>
+      <c r="AY43" s="109"/>
+      <c r="AZ43" s="109"/>
+      <c r="BA43" s="109"/>
+      <c r="BB43" s="109"/>
+      <c r="BC43" s="109"/>
+      <c r="BD43" s="109"/>
+      <c r="BE43" s="109"/>
+      <c r="BF43" s="109"/>
+      <c r="BG43" s="109"/>
+      <c r="BH43" s="109"/>
+      <c r="BI43" s="109"/>
+      <c r="BJ43" s="109"/>
+      <c r="BK43" s="109"/>
+      <c r="BL43" s="109"/>
+      <c r="BM43" s="109"/>
+      <c r="BN43" s="109"/>
+      <c r="BO43" s="109"/>
+      <c r="BP43" s="109"/>
+      <c r="BQ43" s="109"/>
+      <c r="BR43" s="109"/>
+      <c r="BS43" s="109"/>
+      <c r="BT43" s="109"/>
+      <c r="BU43" s="109"/>
+      <c r="BV43" s="109"/>
+      <c r="BW43" s="109"/>
+      <c r="BX43" s="109"/>
+      <c r="BY43" s="109"/>
+      <c r="BZ43" s="109"/>
+      <c r="CA43" s="109"/>
+      <c r="CB43" s="109"/>
+      <c r="CC43" s="109"/>
+      <c r="CD43" s="109"/>
+      <c r="CE43" s="109"/>
+      <c r="CF43" s="109"/>
+      <c r="CG43" s="109"/>
+      <c r="CH43" s="109"/>
+      <c r="CI43" s="109"/>
+      <c r="CJ43" s="109"/>
+      <c r="CK43" s="109"/>
+      <c r="CL43" s="109"/>
+      <c r="CM43" s="109"/>
+      <c r="CN43" s="109"/>
+      <c r="CO43" s="109"/>
+      <c r="CP43" s="109"/>
+      <c r="CQ43" s="109"/>
+      <c r="CR43" s="109"/>
+      <c r="CS43" s="109"/>
+      <c r="CT43" s="109"/>
+      <c r="CU43" s="109"/>
+      <c r="CV43" s="109"/>
+      <c r="CW43" s="109"/>
+      <c r="CX43" s="109"/>
+      <c r="CY43" s="109"/>
+      <c r="CZ43" s="109"/>
+      <c r="DA43" s="109"/>
+      <c r="DB43" s="109"/>
+      <c r="DC43" s="109"/>
+      <c r="DD43" s="109"/>
+      <c r="DE43" s="109"/>
+      <c r="DF43" s="109"/>
+      <c r="DG43" s="109"/>
+      <c r="DH43" s="109"/>
+      <c r="DI43" s="109"/>
     </row>
     <row r="44" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="124"/>
-      <c r="O44" s="124"/>
-      <c r="P44" s="124"/>
-      <c r="Q44" s="124"/>
-      <c r="R44" s="124"/>
-      <c r="S44" s="124"/>
-      <c r="T44" s="124"/>
-      <c r="U44" s="124"/>
-      <c r="V44" s="124"/>
-      <c r="W44" s="124"/>
-      <c r="X44" s="124"/>
-      <c r="Y44" s="124"/>
-      <c r="Z44" s="124"/>
-      <c r="AA44" s="124"/>
-      <c r="AB44" s="124"/>
-      <c r="AC44" s="124"/>
-      <c r="AD44" s="124"/>
-      <c r="AE44" s="124"/>
-      <c r="AF44" s="124"/>
-      <c r="AG44" s="124"/>
-      <c r="AH44" s="124"/>
-      <c r="AI44" s="124"/>
-      <c r="AJ44" s="124"/>
-      <c r="AK44" s="124"/>
-      <c r="AL44" s="124"/>
-      <c r="AM44" s="124"/>
-      <c r="AN44" s="124"/>
-      <c r="AO44" s="124"/>
-      <c r="AP44" s="124"/>
-      <c r="AQ44" s="124"/>
-      <c r="AR44" s="124"/>
-      <c r="AS44" s="124"/>
-      <c r="AT44" s="124"/>
-      <c r="AU44" s="124"/>
-      <c r="AV44" s="124"/>
-      <c r="AW44" s="124"/>
-      <c r="AX44" s="124"/>
-      <c r="AY44" s="124"/>
-      <c r="AZ44" s="124"/>
-      <c r="BA44" s="124"/>
-      <c r="BB44" s="124"/>
-      <c r="BC44" s="124"/>
-      <c r="BD44" s="124"/>
-      <c r="BE44" s="124"/>
-      <c r="BF44" s="124"/>
-      <c r="BG44" s="124"/>
-      <c r="BH44" s="124"/>
-      <c r="BI44" s="124"/>
-      <c r="BJ44" s="124"/>
-      <c r="BK44" s="124"/>
-      <c r="BL44" s="124"/>
-      <c r="BM44" s="124"/>
-      <c r="BN44" s="124"/>
-      <c r="BO44" s="124"/>
-      <c r="BP44" s="124"/>
-      <c r="BQ44" s="124"/>
-      <c r="BR44" s="124"/>
-      <c r="BS44" s="124"/>
-      <c r="BT44" s="124"/>
-      <c r="BU44" s="124"/>
-      <c r="BV44" s="124"/>
-      <c r="BW44" s="124"/>
-      <c r="BX44" s="124"/>
-      <c r="BY44" s="124"/>
-      <c r="BZ44" s="124"/>
-      <c r="CA44" s="124"/>
-      <c r="CB44" s="124"/>
-      <c r="CC44" s="124"/>
-      <c r="CD44" s="124"/>
-      <c r="CE44" s="124"/>
-      <c r="CF44" s="124"/>
-      <c r="CG44" s="124"/>
-      <c r="CH44" s="124"/>
-      <c r="CI44" s="124"/>
-      <c r="CJ44" s="124"/>
-      <c r="CK44" s="124"/>
-      <c r="CL44" s="124"/>
-      <c r="CM44" s="124"/>
-      <c r="CN44" s="124"/>
-      <c r="CO44" s="124"/>
-      <c r="CP44" s="124"/>
-      <c r="CQ44" s="124"/>
-      <c r="CR44" s="124"/>
-      <c r="CS44" s="124"/>
-      <c r="CT44" s="124"/>
-      <c r="CU44" s="124"/>
-      <c r="CV44" s="124"/>
-      <c r="CW44" s="124"/>
-      <c r="CX44" s="124"/>
-      <c r="CY44" s="124"/>
-      <c r="CZ44" s="124"/>
-      <c r="DA44" s="124"/>
-      <c r="DB44" s="124"/>
-      <c r="DC44" s="124"/>
-      <c r="DD44" s="124"/>
-      <c r="DE44" s="124"/>
-      <c r="DF44" s="124"/>
-      <c r="DG44" s="124"/>
-      <c r="DH44" s="124"/>
-      <c r="DI44" s="124"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
+      <c r="AE44" s="109"/>
+      <c r="AF44" s="109"/>
+      <c r="AG44" s="109"/>
+      <c r="AH44" s="109"/>
+      <c r="AI44" s="109"/>
+      <c r="AJ44" s="109"/>
+      <c r="AK44" s="109"/>
+      <c r="AL44" s="109"/>
+      <c r="AM44" s="109"/>
+      <c r="AN44" s="109"/>
+      <c r="AO44" s="109"/>
+      <c r="AP44" s="109"/>
+      <c r="AQ44" s="109"/>
+      <c r="AR44" s="109"/>
+      <c r="AS44" s="109"/>
+      <c r="AT44" s="109"/>
+      <c r="AU44" s="109"/>
+      <c r="AV44" s="109"/>
+      <c r="AW44" s="109"/>
+      <c r="AX44" s="109"/>
+      <c r="AY44" s="109"/>
+      <c r="AZ44" s="109"/>
+      <c r="BA44" s="109"/>
+      <c r="BB44" s="109"/>
+      <c r="BC44" s="109"/>
+      <c r="BD44" s="109"/>
+      <c r="BE44" s="109"/>
+      <c r="BF44" s="109"/>
+      <c r="BG44" s="109"/>
+      <c r="BH44" s="109"/>
+      <c r="BI44" s="109"/>
+      <c r="BJ44" s="109"/>
+      <c r="BK44" s="109"/>
+      <c r="BL44" s="109"/>
+      <c r="BM44" s="109"/>
+      <c r="BN44" s="109"/>
+      <c r="BO44" s="109"/>
+      <c r="BP44" s="109"/>
+      <c r="BQ44" s="109"/>
+      <c r="BR44" s="109"/>
+      <c r="BS44" s="109"/>
+      <c r="BT44" s="109"/>
+      <c r="BU44" s="109"/>
+      <c r="BV44" s="109"/>
+      <c r="BW44" s="109"/>
+      <c r="BX44" s="109"/>
+      <c r="BY44" s="109"/>
+      <c r="BZ44" s="109"/>
+      <c r="CA44" s="109"/>
+      <c r="CB44" s="109"/>
+      <c r="CC44" s="109"/>
+      <c r="CD44" s="109"/>
+      <c r="CE44" s="109"/>
+      <c r="CF44" s="109"/>
+      <c r="CG44" s="109"/>
+      <c r="CH44" s="109"/>
+      <c r="CI44" s="109"/>
+      <c r="CJ44" s="109"/>
+      <c r="CK44" s="109"/>
+      <c r="CL44" s="109"/>
+      <c r="CM44" s="109"/>
+      <c r="CN44" s="109"/>
+      <c r="CO44" s="109"/>
+      <c r="CP44" s="109"/>
+      <c r="CQ44" s="109"/>
+      <c r="CR44" s="109"/>
+      <c r="CS44" s="109"/>
+      <c r="CT44" s="109"/>
+      <c r="CU44" s="109"/>
+      <c r="CV44" s="109"/>
+      <c r="CW44" s="109"/>
+      <c r="CX44" s="109"/>
+      <c r="CY44" s="109"/>
+      <c r="CZ44" s="109"/>
+      <c r="DA44" s="109"/>
+      <c r="DB44" s="109"/>
+      <c r="DC44" s="109"/>
+      <c r="DD44" s="109"/>
+      <c r="DE44" s="109"/>
+      <c r="DF44" s="109"/>
+      <c r="DG44" s="109"/>
+      <c r="DH44" s="109"/>
+      <c r="DI44" s="109"/>
     </row>
     <row r="45" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="124"/>
-      <c r="O45" s="124"/>
-      <c r="P45" s="124"/>
-      <c r="Q45" s="124"/>
-      <c r="R45" s="124"/>
-      <c r="S45" s="124"/>
-      <c r="T45" s="124"/>
-      <c r="U45" s="124"/>
-      <c r="V45" s="124"/>
-      <c r="W45" s="124"/>
-      <c r="X45" s="124"/>
-      <c r="Y45" s="124"/>
-      <c r="Z45" s="124"/>
-      <c r="AA45" s="124"/>
-      <c r="AB45" s="124"/>
-      <c r="AC45" s="124"/>
-      <c r="AD45" s="124"/>
-      <c r="AE45" s="124"/>
-      <c r="AF45" s="124"/>
-      <c r="AG45" s="124"/>
-      <c r="AH45" s="124"/>
-      <c r="AI45" s="124"/>
-      <c r="AJ45" s="124"/>
-      <c r="AK45" s="124"/>
-      <c r="AL45" s="124"/>
-      <c r="AM45" s="124"/>
-      <c r="AN45" s="124"/>
-      <c r="AO45" s="124"/>
-      <c r="AP45" s="124"/>
-      <c r="AQ45" s="124"/>
-      <c r="AR45" s="124"/>
-      <c r="AS45" s="124"/>
-      <c r="AT45" s="124"/>
-      <c r="AU45" s="124"/>
-      <c r="AV45" s="124"/>
-      <c r="AW45" s="124"/>
-      <c r="AX45" s="124"/>
-      <c r="AY45" s="124"/>
-      <c r="AZ45" s="124"/>
-      <c r="BA45" s="124"/>
-      <c r="BB45" s="124"/>
-      <c r="BC45" s="124"/>
-      <c r="BD45" s="124"/>
-      <c r="BE45" s="124"/>
-      <c r="BF45" s="124"/>
-      <c r="BG45" s="124"/>
-      <c r="BH45" s="124"/>
-      <c r="BI45" s="124"/>
-      <c r="BJ45" s="124"/>
-      <c r="BK45" s="124"/>
-      <c r="BL45" s="124"/>
-      <c r="BM45" s="124"/>
-      <c r="BN45" s="124"/>
-      <c r="BO45" s="124"/>
-      <c r="BP45" s="124"/>
-      <c r="BQ45" s="124"/>
-      <c r="BR45" s="124"/>
-      <c r="BS45" s="124"/>
-      <c r="BT45" s="124"/>
-      <c r="BU45" s="124"/>
-      <c r="BV45" s="124"/>
-      <c r="BW45" s="124"/>
-      <c r="BX45" s="124"/>
-      <c r="BY45" s="124"/>
-      <c r="BZ45" s="124"/>
-      <c r="CA45" s="124"/>
-      <c r="CB45" s="124"/>
-      <c r="CC45" s="124"/>
-      <c r="CD45" s="124"/>
-      <c r="CE45" s="124"/>
-      <c r="CF45" s="124"/>
-      <c r="CG45" s="124"/>
-      <c r="CH45" s="124"/>
-      <c r="CI45" s="124"/>
-      <c r="CJ45" s="124"/>
-      <c r="CK45" s="124"/>
-      <c r="CL45" s="124"/>
-      <c r="CM45" s="124"/>
-      <c r="CN45" s="124"/>
-      <c r="CO45" s="124"/>
-      <c r="CP45" s="124"/>
-      <c r="CQ45" s="124"/>
-      <c r="CR45" s="124"/>
-      <c r="CS45" s="124"/>
-      <c r="CT45" s="124"/>
-      <c r="CU45" s="124"/>
-      <c r="CV45" s="124"/>
-      <c r="CW45" s="124"/>
-      <c r="CX45" s="124"/>
-      <c r="CY45" s="124"/>
-      <c r="CZ45" s="124"/>
-      <c r="DA45" s="124"/>
-      <c r="DB45" s="124"/>
-      <c r="DC45" s="124"/>
-      <c r="DD45" s="124"/>
-      <c r="DE45" s="124"/>
-      <c r="DF45" s="124"/>
-      <c r="DG45" s="124"/>
-      <c r="DH45" s="124"/>
-      <c r="DI45" s="124"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="109"/>
+      <c r="O45" s="109"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="109"/>
+      <c r="V45" s="109"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="109"/>
+      <c r="AA45" s="109"/>
+      <c r="AB45" s="109"/>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="109"/>
+      <c r="AE45" s="109"/>
+      <c r="AF45" s="109"/>
+      <c r="AG45" s="109"/>
+      <c r="AH45" s="109"/>
+      <c r="AI45" s="109"/>
+      <c r="AJ45" s="109"/>
+      <c r="AK45" s="109"/>
+      <c r="AL45" s="109"/>
+      <c r="AM45" s="109"/>
+      <c r="AN45" s="109"/>
+      <c r="AO45" s="109"/>
+      <c r="AP45" s="109"/>
+      <c r="AQ45" s="109"/>
+      <c r="AR45" s="109"/>
+      <c r="AS45" s="109"/>
+      <c r="AT45" s="109"/>
+      <c r="AU45" s="109"/>
+      <c r="AV45" s="109"/>
+      <c r="AW45" s="109"/>
+      <c r="AX45" s="109"/>
+      <c r="AY45" s="109"/>
+      <c r="AZ45" s="109"/>
+      <c r="BA45" s="109"/>
+      <c r="BB45" s="109"/>
+      <c r="BC45" s="109"/>
+      <c r="BD45" s="109"/>
+      <c r="BE45" s="109"/>
+      <c r="BF45" s="109"/>
+      <c r="BG45" s="109"/>
+      <c r="BH45" s="109"/>
+      <c r="BI45" s="109"/>
+      <c r="BJ45" s="109"/>
+      <c r="BK45" s="109"/>
+      <c r="BL45" s="109"/>
+      <c r="BM45" s="109"/>
+      <c r="BN45" s="109"/>
+      <c r="BO45" s="109"/>
+      <c r="BP45" s="109"/>
+      <c r="BQ45" s="109"/>
+      <c r="BR45" s="109"/>
+      <c r="BS45" s="109"/>
+      <c r="BT45" s="109"/>
+      <c r="BU45" s="109"/>
+      <c r="BV45" s="109"/>
+      <c r="BW45" s="109"/>
+      <c r="BX45" s="109"/>
+      <c r="BY45" s="109"/>
+      <c r="BZ45" s="109"/>
+      <c r="CA45" s="109"/>
+      <c r="CB45" s="109"/>
+      <c r="CC45" s="109"/>
+      <c r="CD45" s="109"/>
+      <c r="CE45" s="109"/>
+      <c r="CF45" s="109"/>
+      <c r="CG45" s="109"/>
+      <c r="CH45" s="109"/>
+      <c r="CI45" s="109"/>
+      <c r="CJ45" s="109"/>
+      <c r="CK45" s="109"/>
+      <c r="CL45" s="109"/>
+      <c r="CM45" s="109"/>
+      <c r="CN45" s="109"/>
+      <c r="CO45" s="109"/>
+      <c r="CP45" s="109"/>
+      <c r="CQ45" s="109"/>
+      <c r="CR45" s="109"/>
+      <c r="CS45" s="109"/>
+      <c r="CT45" s="109"/>
+      <c r="CU45" s="109"/>
+      <c r="CV45" s="109"/>
+      <c r="CW45" s="109"/>
+      <c r="CX45" s="109"/>
+      <c r="CY45" s="109"/>
+      <c r="CZ45" s="109"/>
+      <c r="DA45" s="109"/>
+      <c r="DB45" s="109"/>
+      <c r="DC45" s="109"/>
+      <c r="DD45" s="109"/>
+      <c r="DE45" s="109"/>
+      <c r="DF45" s="109"/>
+      <c r="DG45" s="109"/>
+      <c r="DH45" s="109"/>
+      <c r="DI45" s="109"/>
     </row>
     <row r="46" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
-      <c r="O46" s="124"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="124"/>
-      <c r="S46" s="124"/>
-      <c r="T46" s="124"/>
-      <c r="U46" s="124"/>
-      <c r="V46" s="124"/>
-      <c r="W46" s="124"/>
-      <c r="X46" s="124"/>
-      <c r="Y46" s="124"/>
-      <c r="Z46" s="124"/>
-      <c r="AA46" s="124"/>
-      <c r="AB46" s="124"/>
-      <c r="AC46" s="124"/>
-      <c r="AD46" s="124"/>
-      <c r="AE46" s="124"/>
-      <c r="AF46" s="124"/>
-      <c r="AG46" s="124"/>
-      <c r="AH46" s="124"/>
-      <c r="AI46" s="124"/>
-      <c r="AJ46" s="124"/>
-      <c r="AK46" s="124"/>
-      <c r="AL46" s="124"/>
-      <c r="AM46" s="124"/>
-      <c r="AN46" s="124"/>
-      <c r="AO46" s="124"/>
-      <c r="AP46" s="124"/>
-      <c r="AQ46" s="124"/>
-      <c r="AR46" s="124"/>
-      <c r="AS46" s="124"/>
-      <c r="AT46" s="124"/>
-      <c r="AU46" s="124"/>
-      <c r="AV46" s="124"/>
-      <c r="AW46" s="124"/>
-      <c r="AX46" s="124"/>
-      <c r="AY46" s="124"/>
-      <c r="AZ46" s="124"/>
-      <c r="BA46" s="124"/>
-      <c r="BB46" s="124"/>
-      <c r="BC46" s="124"/>
-      <c r="BD46" s="124"/>
-      <c r="BE46" s="124"/>
-      <c r="BF46" s="124"/>
-      <c r="BG46" s="124"/>
-      <c r="BH46" s="124"/>
-      <c r="BI46" s="124"/>
-      <c r="BJ46" s="124"/>
-      <c r="BK46" s="124"/>
-      <c r="BL46" s="124"/>
-      <c r="BM46" s="124"/>
-      <c r="BN46" s="124"/>
-      <c r="BO46" s="124"/>
-      <c r="BP46" s="124"/>
-      <c r="BQ46" s="124"/>
-      <c r="BR46" s="124"/>
-      <c r="BS46" s="124"/>
-      <c r="BT46" s="124"/>
-      <c r="BU46" s="124"/>
-      <c r="BV46" s="124"/>
-      <c r="BW46" s="124"/>
-      <c r="BX46" s="124"/>
-      <c r="BY46" s="124"/>
-      <c r="BZ46" s="124"/>
-      <c r="CA46" s="124"/>
-      <c r="CB46" s="124"/>
-      <c r="CC46" s="124"/>
-      <c r="CD46" s="124"/>
-      <c r="CE46" s="124"/>
-      <c r="CF46" s="124"/>
-      <c r="CG46" s="124"/>
-      <c r="CH46" s="124"/>
-      <c r="CI46" s="124"/>
-      <c r="CJ46" s="124"/>
-      <c r="CK46" s="124"/>
-      <c r="CL46" s="124"/>
-      <c r="CM46" s="124"/>
-      <c r="CN46" s="124"/>
-      <c r="CO46" s="124"/>
-      <c r="CP46" s="124"/>
-      <c r="CQ46" s="124"/>
-      <c r="CR46" s="124"/>
-      <c r="CS46" s="124"/>
-      <c r="CT46" s="124"/>
-      <c r="CU46" s="124"/>
-      <c r="CV46" s="124"/>
-      <c r="CW46" s="124"/>
-      <c r="CX46" s="124"/>
-      <c r="CY46" s="124"/>
-      <c r="CZ46" s="124"/>
-      <c r="DA46" s="124"/>
-      <c r="DB46" s="124"/>
-      <c r="DC46" s="124"/>
-      <c r="DD46" s="124"/>
-      <c r="DE46" s="124"/>
-      <c r="DF46" s="124"/>
-      <c r="DG46" s="124"/>
-      <c r="DH46" s="124"/>
-      <c r="DI46" s="124"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="109"/>
+      <c r="N46" s="109"/>
+      <c r="O46" s="109"/>
+      <c r="P46" s="109"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="109"/>
+      <c r="U46" s="109"/>
+      <c r="V46" s="109"/>
+      <c r="W46" s="109"/>
+      <c r="X46" s="109"/>
+      <c r="Y46" s="109"/>
+      <c r="Z46" s="109"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="109"/>
+      <c r="AD46" s="109"/>
+      <c r="AE46" s="109"/>
+      <c r="AF46" s="109"/>
+      <c r="AG46" s="109"/>
+      <c r="AH46" s="109"/>
+      <c r="AI46" s="109"/>
+      <c r="AJ46" s="109"/>
+      <c r="AK46" s="109"/>
+      <c r="AL46" s="109"/>
+      <c r="AM46" s="109"/>
+      <c r="AN46" s="109"/>
+      <c r="AO46" s="109"/>
+      <c r="AP46" s="109"/>
+      <c r="AQ46" s="109"/>
+      <c r="AR46" s="109"/>
+      <c r="AS46" s="109"/>
+      <c r="AT46" s="109"/>
+      <c r="AU46" s="109"/>
+      <c r="AV46" s="109"/>
+      <c r="AW46" s="109"/>
+      <c r="AX46" s="109"/>
+      <c r="AY46" s="109"/>
+      <c r="AZ46" s="109"/>
+      <c r="BA46" s="109"/>
+      <c r="BB46" s="109"/>
+      <c r="BC46" s="109"/>
+      <c r="BD46" s="109"/>
+      <c r="BE46" s="109"/>
+      <c r="BF46" s="109"/>
+      <c r="BG46" s="109"/>
+      <c r="BH46" s="109"/>
+      <c r="BI46" s="109"/>
+      <c r="BJ46" s="109"/>
+      <c r="BK46" s="109"/>
+      <c r="BL46" s="109"/>
+      <c r="BM46" s="109"/>
+      <c r="BN46" s="109"/>
+      <c r="BO46" s="109"/>
+      <c r="BP46" s="109"/>
+      <c r="BQ46" s="109"/>
+      <c r="BR46" s="109"/>
+      <c r="BS46" s="109"/>
+      <c r="BT46" s="109"/>
+      <c r="BU46" s="109"/>
+      <c r="BV46" s="109"/>
+      <c r="BW46" s="109"/>
+      <c r="BX46" s="109"/>
+      <c r="BY46" s="109"/>
+      <c r="BZ46" s="109"/>
+      <c r="CA46" s="109"/>
+      <c r="CB46" s="109"/>
+      <c r="CC46" s="109"/>
+      <c r="CD46" s="109"/>
+      <c r="CE46" s="109"/>
+      <c r="CF46" s="109"/>
+      <c r="CG46" s="109"/>
+      <c r="CH46" s="109"/>
+      <c r="CI46" s="109"/>
+      <c r="CJ46" s="109"/>
+      <c r="CK46" s="109"/>
+      <c r="CL46" s="109"/>
+      <c r="CM46" s="109"/>
+      <c r="CN46" s="109"/>
+      <c r="CO46" s="109"/>
+      <c r="CP46" s="109"/>
+      <c r="CQ46" s="109"/>
+      <c r="CR46" s="109"/>
+      <c r="CS46" s="109"/>
+      <c r="CT46" s="109"/>
+      <c r="CU46" s="109"/>
+      <c r="CV46" s="109"/>
+      <c r="CW46" s="109"/>
+      <c r="CX46" s="109"/>
+      <c r="CY46" s="109"/>
+      <c r="CZ46" s="109"/>
+      <c r="DA46" s="109"/>
+      <c r="DB46" s="109"/>
+      <c r="DC46" s="109"/>
+      <c r="DD46" s="109"/>
+      <c r="DE46" s="109"/>
+      <c r="DF46" s="109"/>
+      <c r="DG46" s="109"/>
+      <c r="DH46" s="109"/>
+      <c r="DI46" s="109"/>
     </row>
     <row r="47" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -13339,146 +13373,146 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124" t="str">
+      <c r="D47" s="109"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="109"/>
+      <c r="M47" s="109"/>
+      <c r="N47" s="109" t="str">
         <f>IF(ISBLANK(D47),"",D47)</f>
         <v/>
       </c>
-      <c r="O47" s="124"/>
-      <c r="P47" s="124"/>
-      <c r="Q47" s="124"/>
-      <c r="R47" s="124"/>
-      <c r="S47" s="124"/>
-      <c r="T47" s="124"/>
-      <c r="U47" s="124"/>
-      <c r="V47" s="124"/>
-      <c r="W47" s="124"/>
-      <c r="X47" s="124" t="str">
+      <c r="O47" s="109"/>
+      <c r="P47" s="109"/>
+      <c r="Q47" s="109"/>
+      <c r="R47" s="109"/>
+      <c r="S47" s="109"/>
+      <c r="T47" s="109"/>
+      <c r="U47" s="109"/>
+      <c r="V47" s="109"/>
+      <c r="W47" s="109"/>
+      <c r="X47" s="109" t="str">
         <f t="shared" ref="X47" si="41">IF(ISBLANK(N47),"",N47)</f>
         <v/>
       </c>
-      <c r="Y47" s="124"/>
-      <c r="Z47" s="124"/>
-      <c r="AA47" s="124"/>
-      <c r="AB47" s="124"/>
-      <c r="AC47" s="124"/>
-      <c r="AD47" s="124"/>
-      <c r="AE47" s="124"/>
-      <c r="AF47" s="124"/>
-      <c r="AG47" s="124"/>
-      <c r="AH47" s="124" t="str">
+      <c r="Y47" s="109"/>
+      <c r="Z47" s="109"/>
+      <c r="AA47" s="109"/>
+      <c r="AB47" s="109"/>
+      <c r="AC47" s="109"/>
+      <c r="AD47" s="109"/>
+      <c r="AE47" s="109"/>
+      <c r="AF47" s="109"/>
+      <c r="AG47" s="109"/>
+      <c r="AH47" s="109" t="str">
         <f t="shared" ref="AH47" si="42">IF(ISBLANK(X47),"",X47)</f>
         <v/>
       </c>
-      <c r="AI47" s="124"/>
-      <c r="AJ47" s="124"/>
-      <c r="AK47" s="124"/>
-      <c r="AL47" s="124"/>
-      <c r="AM47" s="124"/>
-      <c r="AN47" s="124"/>
-      <c r="AO47" s="124"/>
-      <c r="AP47" s="124"/>
-      <c r="AQ47" s="124"/>
-      <c r="AR47" s="124" t="str">
+      <c r="AI47" s="109"/>
+      <c r="AJ47" s="109"/>
+      <c r="AK47" s="109"/>
+      <c r="AL47" s="109"/>
+      <c r="AM47" s="109"/>
+      <c r="AN47" s="109"/>
+      <c r="AO47" s="109"/>
+      <c r="AP47" s="109"/>
+      <c r="AQ47" s="109"/>
+      <c r="AR47" s="109" t="str">
         <f t="shared" ref="AR47" si="43">IF(ISBLANK(AH47),"",AH47)</f>
         <v/>
       </c>
-      <c r="AS47" s="124"/>
-      <c r="AT47" s="124"/>
-      <c r="AU47" s="124"/>
-      <c r="AV47" s="124"/>
-      <c r="AW47" s="124"/>
-      <c r="AX47" s="124"/>
-      <c r="AY47" s="124"/>
-      <c r="AZ47" s="124"/>
-      <c r="BA47" s="124"/>
-      <c r="BB47" s="124" t="str">
+      <c r="AS47" s="109"/>
+      <c r="AT47" s="109"/>
+      <c r="AU47" s="109"/>
+      <c r="AV47" s="109"/>
+      <c r="AW47" s="109"/>
+      <c r="AX47" s="109"/>
+      <c r="AY47" s="109"/>
+      <c r="AZ47" s="109"/>
+      <c r="BA47" s="109"/>
+      <c r="BB47" s="109" t="str">
         <f t="shared" ref="BB47" si="44">IF(ISBLANK(AR47),"",AR47)</f>
         <v/>
       </c>
-      <c r="BC47" s="124"/>
-      <c r="BD47" s="124"/>
-      <c r="BE47" s="124"/>
-      <c r="BF47" s="124"/>
-      <c r="BG47" s="124"/>
-      <c r="BH47" s="124"/>
-      <c r="BI47" s="124"/>
-      <c r="BJ47" s="124"/>
-      <c r="BK47" s="124"/>
-      <c r="BL47" s="124" t="str">
+      <c r="BC47" s="109"/>
+      <c r="BD47" s="109"/>
+      <c r="BE47" s="109"/>
+      <c r="BF47" s="109"/>
+      <c r="BG47" s="109"/>
+      <c r="BH47" s="109"/>
+      <c r="BI47" s="109"/>
+      <c r="BJ47" s="109"/>
+      <c r="BK47" s="109"/>
+      <c r="BL47" s="109" t="str">
         <f t="shared" ref="BL47" si="45">IF(ISBLANK(BB47),"",BB47)</f>
         <v/>
       </c>
-      <c r="BM47" s="124"/>
-      <c r="BN47" s="124"/>
-      <c r="BO47" s="124"/>
-      <c r="BP47" s="124"/>
-      <c r="BQ47" s="124"/>
-      <c r="BR47" s="124"/>
-      <c r="BS47" s="124"/>
-      <c r="BT47" s="124"/>
-      <c r="BU47" s="124"/>
-      <c r="BV47" s="124" t="str">
+      <c r="BM47" s="109"/>
+      <c r="BN47" s="109"/>
+      <c r="BO47" s="109"/>
+      <c r="BP47" s="109"/>
+      <c r="BQ47" s="109"/>
+      <c r="BR47" s="109"/>
+      <c r="BS47" s="109"/>
+      <c r="BT47" s="109"/>
+      <c r="BU47" s="109"/>
+      <c r="BV47" s="109" t="str">
         <f t="shared" ref="BV47" si="46">IF(ISBLANK(BL47),"",BL47)</f>
         <v/>
       </c>
-      <c r="BW47" s="124"/>
-      <c r="BX47" s="124"/>
-      <c r="BY47" s="124"/>
-      <c r="BZ47" s="124"/>
-      <c r="CA47" s="124"/>
-      <c r="CB47" s="124"/>
-      <c r="CC47" s="124"/>
-      <c r="CD47" s="124"/>
-      <c r="CE47" s="124"/>
-      <c r="CF47" s="124" t="str">
+      <c r="BW47" s="109"/>
+      <c r="BX47" s="109"/>
+      <c r="BY47" s="109"/>
+      <c r="BZ47" s="109"/>
+      <c r="CA47" s="109"/>
+      <c r="CB47" s="109"/>
+      <c r="CC47" s="109"/>
+      <c r="CD47" s="109"/>
+      <c r="CE47" s="109"/>
+      <c r="CF47" s="109" t="str">
         <f t="shared" ref="CF47" si="47">IF(ISBLANK(BV47),"",BV47)</f>
         <v/>
       </c>
-      <c r="CG47" s="124"/>
-      <c r="CH47" s="124"/>
-      <c r="CI47" s="124"/>
-      <c r="CJ47" s="124"/>
-      <c r="CK47" s="124"/>
-      <c r="CL47" s="124"/>
-      <c r="CM47" s="124"/>
-      <c r="CN47" s="124"/>
-      <c r="CO47" s="124"/>
-      <c r="CP47" s="124" t="str">
+      <c r="CG47" s="109"/>
+      <c r="CH47" s="109"/>
+      <c r="CI47" s="109"/>
+      <c r="CJ47" s="109"/>
+      <c r="CK47" s="109"/>
+      <c r="CL47" s="109"/>
+      <c r="CM47" s="109"/>
+      <c r="CN47" s="109"/>
+      <c r="CO47" s="109"/>
+      <c r="CP47" s="109" t="str">
         <f t="shared" ref="CP47" si="48">IF(ISBLANK(CF47),"",CF47)</f>
         <v/>
       </c>
-      <c r="CQ47" s="124"/>
-      <c r="CR47" s="124"/>
-      <c r="CS47" s="124"/>
-      <c r="CT47" s="124"/>
-      <c r="CU47" s="124"/>
-      <c r="CV47" s="124"/>
-      <c r="CW47" s="124"/>
-      <c r="CX47" s="124"/>
-      <c r="CY47" s="124"/>
-      <c r="CZ47" s="124" t="str">
+      <c r="CQ47" s="109"/>
+      <c r="CR47" s="109"/>
+      <c r="CS47" s="109"/>
+      <c r="CT47" s="109"/>
+      <c r="CU47" s="109"/>
+      <c r="CV47" s="109"/>
+      <c r="CW47" s="109"/>
+      <c r="CX47" s="109"/>
+      <c r="CY47" s="109"/>
+      <c r="CZ47" s="109" t="str">
         <f t="shared" ref="CZ47" si="49">IF(ISBLANK(CP47),"",CP47)</f>
         <v/>
       </c>
-      <c r="DA47" s="124"/>
-      <c r="DB47" s="124"/>
-      <c r="DC47" s="124"/>
-      <c r="DD47" s="124"/>
-      <c r="DE47" s="124"/>
-      <c r="DF47" s="124"/>
-      <c r="DG47" s="124"/>
-      <c r="DH47" s="124"/>
-      <c r="DI47" s="124"/>
+      <c r="DA47" s="109"/>
+      <c r="DB47" s="109"/>
+      <c r="DC47" s="109"/>
+      <c r="DD47" s="109"/>
+      <c r="DE47" s="109"/>
+      <c r="DF47" s="109"/>
+      <c r="DG47" s="109"/>
+      <c r="DH47" s="109"/>
+      <c r="DI47" s="109"/>
     </row>
     <row r="48" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -13486,558 +13520,464 @@
         <v>46</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="124"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="124"/>
-      <c r="S48" s="124"/>
-      <c r="T48" s="124"/>
-      <c r="U48" s="124"/>
-      <c r="V48" s="124"/>
-      <c r="W48" s="124"/>
-      <c r="X48" s="124"/>
-      <c r="Y48" s="124"/>
-      <c r="Z48" s="124"/>
-      <c r="AA48" s="124"/>
-      <c r="AB48" s="124"/>
-      <c r="AC48" s="124"/>
-      <c r="AD48" s="124"/>
-      <c r="AE48" s="124"/>
-      <c r="AF48" s="124"/>
-      <c r="AG48" s="124"/>
-      <c r="AH48" s="124"/>
-      <c r="AI48" s="124"/>
-      <c r="AJ48" s="124"/>
-      <c r="AK48" s="124"/>
-      <c r="AL48" s="124"/>
-      <c r="AM48" s="124"/>
-      <c r="AN48" s="124"/>
-      <c r="AO48" s="124"/>
-      <c r="AP48" s="124"/>
-      <c r="AQ48" s="124"/>
-      <c r="AR48" s="124"/>
-      <c r="AS48" s="124"/>
-      <c r="AT48" s="124"/>
-      <c r="AU48" s="124"/>
-      <c r="AV48" s="124"/>
-      <c r="AW48" s="124"/>
-      <c r="AX48" s="124"/>
-      <c r="AY48" s="124"/>
-      <c r="AZ48" s="124"/>
-      <c r="BA48" s="124"/>
-      <c r="BB48" s="124"/>
-      <c r="BC48" s="124"/>
-      <c r="BD48" s="124"/>
-      <c r="BE48" s="124"/>
-      <c r="BF48" s="124"/>
-      <c r="BG48" s="124"/>
-      <c r="BH48" s="124"/>
-      <c r="BI48" s="124"/>
-      <c r="BJ48" s="124"/>
-      <c r="BK48" s="124"/>
-      <c r="BL48" s="124"/>
-      <c r="BM48" s="124"/>
-      <c r="BN48" s="124"/>
-      <c r="BO48" s="124"/>
-      <c r="BP48" s="124"/>
-      <c r="BQ48" s="124"/>
-      <c r="BR48" s="124"/>
-      <c r="BS48" s="124"/>
-      <c r="BT48" s="124"/>
-      <c r="BU48" s="124"/>
-      <c r="BV48" s="124"/>
-      <c r="BW48" s="124"/>
-      <c r="BX48" s="124"/>
-      <c r="BY48" s="124"/>
-      <c r="BZ48" s="124"/>
-      <c r="CA48" s="124"/>
-      <c r="CB48" s="124"/>
-      <c r="CC48" s="124"/>
-      <c r="CD48" s="124"/>
-      <c r="CE48" s="124"/>
-      <c r="CF48" s="124"/>
-      <c r="CG48" s="124"/>
-      <c r="CH48" s="124"/>
-      <c r="CI48" s="124"/>
-      <c r="CJ48" s="124"/>
-      <c r="CK48" s="124"/>
-      <c r="CL48" s="124"/>
-      <c r="CM48" s="124"/>
-      <c r="CN48" s="124"/>
-      <c r="CO48" s="124"/>
-      <c r="CP48" s="124"/>
-      <c r="CQ48" s="124"/>
-      <c r="CR48" s="124"/>
-      <c r="CS48" s="124"/>
-      <c r="CT48" s="124"/>
-      <c r="CU48" s="124"/>
-      <c r="CV48" s="124"/>
-      <c r="CW48" s="124"/>
-      <c r="CX48" s="124"/>
-      <c r="CY48" s="124"/>
-      <c r="CZ48" s="124"/>
-      <c r="DA48" s="124"/>
-      <c r="DB48" s="124"/>
-      <c r="DC48" s="124"/>
-      <c r="DD48" s="124"/>
-      <c r="DE48" s="124"/>
-      <c r="DF48" s="124"/>
-      <c r="DG48" s="124"/>
-      <c r="DH48" s="124"/>
-      <c r="DI48" s="124"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="109"/>
+      <c r="N48" s="109"/>
+      <c r="O48" s="109"/>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="109"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="109"/>
+      <c r="U48" s="109"/>
+      <c r="V48" s="109"/>
+      <c r="W48" s="109"/>
+      <c r="X48" s="109"/>
+      <c r="Y48" s="109"/>
+      <c r="Z48" s="109"/>
+      <c r="AA48" s="109"/>
+      <c r="AB48" s="109"/>
+      <c r="AC48" s="109"/>
+      <c r="AD48" s="109"/>
+      <c r="AE48" s="109"/>
+      <c r="AF48" s="109"/>
+      <c r="AG48" s="109"/>
+      <c r="AH48" s="109"/>
+      <c r="AI48" s="109"/>
+      <c r="AJ48" s="109"/>
+      <c r="AK48" s="109"/>
+      <c r="AL48" s="109"/>
+      <c r="AM48" s="109"/>
+      <c r="AN48" s="109"/>
+      <c r="AO48" s="109"/>
+      <c r="AP48" s="109"/>
+      <c r="AQ48" s="109"/>
+      <c r="AR48" s="109"/>
+      <c r="AS48" s="109"/>
+      <c r="AT48" s="109"/>
+      <c r="AU48" s="109"/>
+      <c r="AV48" s="109"/>
+      <c r="AW48" s="109"/>
+      <c r="AX48" s="109"/>
+      <c r="AY48" s="109"/>
+      <c r="AZ48" s="109"/>
+      <c r="BA48" s="109"/>
+      <c r="BB48" s="109"/>
+      <c r="BC48" s="109"/>
+      <c r="BD48" s="109"/>
+      <c r="BE48" s="109"/>
+      <c r="BF48" s="109"/>
+      <c r="BG48" s="109"/>
+      <c r="BH48" s="109"/>
+      <c r="BI48" s="109"/>
+      <c r="BJ48" s="109"/>
+      <c r="BK48" s="109"/>
+      <c r="BL48" s="109"/>
+      <c r="BM48" s="109"/>
+      <c r="BN48" s="109"/>
+      <c r="BO48" s="109"/>
+      <c r="BP48" s="109"/>
+      <c r="BQ48" s="109"/>
+      <c r="BR48" s="109"/>
+      <c r="BS48" s="109"/>
+      <c r="BT48" s="109"/>
+      <c r="BU48" s="109"/>
+      <c r="BV48" s="109"/>
+      <c r="BW48" s="109"/>
+      <c r="BX48" s="109"/>
+      <c r="BY48" s="109"/>
+      <c r="BZ48" s="109"/>
+      <c r="CA48" s="109"/>
+      <c r="CB48" s="109"/>
+      <c r="CC48" s="109"/>
+      <c r="CD48" s="109"/>
+      <c r="CE48" s="109"/>
+      <c r="CF48" s="109"/>
+      <c r="CG48" s="109"/>
+      <c r="CH48" s="109"/>
+      <c r="CI48" s="109"/>
+      <c r="CJ48" s="109"/>
+      <c r="CK48" s="109"/>
+      <c r="CL48" s="109"/>
+      <c r="CM48" s="109"/>
+      <c r="CN48" s="109"/>
+      <c r="CO48" s="109"/>
+      <c r="CP48" s="109"/>
+      <c r="CQ48" s="109"/>
+      <c r="CR48" s="109"/>
+      <c r="CS48" s="109"/>
+      <c r="CT48" s="109"/>
+      <c r="CU48" s="109"/>
+      <c r="CV48" s="109"/>
+      <c r="CW48" s="109"/>
+      <c r="CX48" s="109"/>
+      <c r="CY48" s="109"/>
+      <c r="CZ48" s="109"/>
+      <c r="DA48" s="109"/>
+      <c r="DB48" s="109"/>
+      <c r="DC48" s="109"/>
+      <c r="DD48" s="109"/>
+      <c r="DE48" s="109"/>
+      <c r="DF48" s="109"/>
+      <c r="DG48" s="109"/>
+      <c r="DH48" s="109"/>
+      <c r="DI48" s="109"/>
     </row>
     <row r="49" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="124"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
-      <c r="R49" s="124"/>
-      <c r="S49" s="124"/>
-      <c r="T49" s="124"/>
-      <c r="U49" s="124"/>
-      <c r="V49" s="124"/>
-      <c r="W49" s="124"/>
-      <c r="X49" s="124"/>
-      <c r="Y49" s="124"/>
-      <c r="Z49" s="124"/>
-      <c r="AA49" s="124"/>
-      <c r="AB49" s="124"/>
-      <c r="AC49" s="124"/>
-      <c r="AD49" s="124"/>
-      <c r="AE49" s="124"/>
-      <c r="AF49" s="124"/>
-      <c r="AG49" s="124"/>
-      <c r="AH49" s="124"/>
-      <c r="AI49" s="124"/>
-      <c r="AJ49" s="124"/>
-      <c r="AK49" s="124"/>
-      <c r="AL49" s="124"/>
-      <c r="AM49" s="124"/>
-      <c r="AN49" s="124"/>
-      <c r="AO49" s="124"/>
-      <c r="AP49" s="124"/>
-      <c r="AQ49" s="124"/>
-      <c r="AR49" s="124"/>
-      <c r="AS49" s="124"/>
-      <c r="AT49" s="124"/>
-      <c r="AU49" s="124"/>
-      <c r="AV49" s="124"/>
-      <c r="AW49" s="124"/>
-      <c r="AX49" s="124"/>
-      <c r="AY49" s="124"/>
-      <c r="AZ49" s="124"/>
-      <c r="BA49" s="124"/>
-      <c r="BB49" s="124"/>
-      <c r="BC49" s="124"/>
-      <c r="BD49" s="124"/>
-      <c r="BE49" s="124"/>
-      <c r="BF49" s="124"/>
-      <c r="BG49" s="124"/>
-      <c r="BH49" s="124"/>
-      <c r="BI49" s="124"/>
-      <c r="BJ49" s="124"/>
-      <c r="BK49" s="124"/>
-      <c r="BL49" s="124"/>
-      <c r="BM49" s="124"/>
-      <c r="BN49" s="124"/>
-      <c r="BO49" s="124"/>
-      <c r="BP49" s="124"/>
-      <c r="BQ49" s="124"/>
-      <c r="BR49" s="124"/>
-      <c r="BS49" s="124"/>
-      <c r="BT49" s="124"/>
-      <c r="BU49" s="124"/>
-      <c r="BV49" s="124"/>
-      <c r="BW49" s="124"/>
-      <c r="BX49" s="124"/>
-      <c r="BY49" s="124"/>
-      <c r="BZ49" s="124"/>
-      <c r="CA49" s="124"/>
-      <c r="CB49" s="124"/>
-      <c r="CC49" s="124"/>
-      <c r="CD49" s="124"/>
-      <c r="CE49" s="124"/>
-      <c r="CF49" s="124"/>
-      <c r="CG49" s="124"/>
-      <c r="CH49" s="124"/>
-      <c r="CI49" s="124"/>
-      <c r="CJ49" s="124"/>
-      <c r="CK49" s="124"/>
-      <c r="CL49" s="124"/>
-      <c r="CM49" s="124"/>
-      <c r="CN49" s="124"/>
-      <c r="CO49" s="124"/>
-      <c r="CP49" s="124"/>
-      <c r="CQ49" s="124"/>
-      <c r="CR49" s="124"/>
-      <c r="CS49" s="124"/>
-      <c r="CT49" s="124"/>
-      <c r="CU49" s="124"/>
-      <c r="CV49" s="124"/>
-      <c r="CW49" s="124"/>
-      <c r="CX49" s="124"/>
-      <c r="CY49" s="124"/>
-      <c r="CZ49" s="124"/>
-      <c r="DA49" s="124"/>
-      <c r="DB49" s="124"/>
-      <c r="DC49" s="124"/>
-      <c r="DD49" s="124"/>
-      <c r="DE49" s="124"/>
-      <c r="DF49" s="124"/>
-      <c r="DG49" s="124"/>
-      <c r="DH49" s="124"/>
-      <c r="DI49" s="124"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="109"/>
+      <c r="L49" s="109"/>
+      <c r="M49" s="109"/>
+      <c r="N49" s="109"/>
+      <c r="O49" s="109"/>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="109"/>
+      <c r="R49" s="109"/>
+      <c r="S49" s="109"/>
+      <c r="T49" s="109"/>
+      <c r="U49" s="109"/>
+      <c r="V49" s="109"/>
+      <c r="W49" s="109"/>
+      <c r="X49" s="109"/>
+      <c r="Y49" s="109"/>
+      <c r="Z49" s="109"/>
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="109"/>
+      <c r="AC49" s="109"/>
+      <c r="AD49" s="109"/>
+      <c r="AE49" s="109"/>
+      <c r="AF49" s="109"/>
+      <c r="AG49" s="109"/>
+      <c r="AH49" s="109"/>
+      <c r="AI49" s="109"/>
+      <c r="AJ49" s="109"/>
+      <c r="AK49" s="109"/>
+      <c r="AL49" s="109"/>
+      <c r="AM49" s="109"/>
+      <c r="AN49" s="109"/>
+      <c r="AO49" s="109"/>
+      <c r="AP49" s="109"/>
+      <c r="AQ49" s="109"/>
+      <c r="AR49" s="109"/>
+      <c r="AS49" s="109"/>
+      <c r="AT49" s="109"/>
+      <c r="AU49" s="109"/>
+      <c r="AV49" s="109"/>
+      <c r="AW49" s="109"/>
+      <c r="AX49" s="109"/>
+      <c r="AY49" s="109"/>
+      <c r="AZ49" s="109"/>
+      <c r="BA49" s="109"/>
+      <c r="BB49" s="109"/>
+      <c r="BC49" s="109"/>
+      <c r="BD49" s="109"/>
+      <c r="BE49" s="109"/>
+      <c r="BF49" s="109"/>
+      <c r="BG49" s="109"/>
+      <c r="BH49" s="109"/>
+      <c r="BI49" s="109"/>
+      <c r="BJ49" s="109"/>
+      <c r="BK49" s="109"/>
+      <c r="BL49" s="109"/>
+      <c r="BM49" s="109"/>
+      <c r="BN49" s="109"/>
+      <c r="BO49" s="109"/>
+      <c r="BP49" s="109"/>
+      <c r="BQ49" s="109"/>
+      <c r="BR49" s="109"/>
+      <c r="BS49" s="109"/>
+      <c r="BT49" s="109"/>
+      <c r="BU49" s="109"/>
+      <c r="BV49" s="109"/>
+      <c r="BW49" s="109"/>
+      <c r="BX49" s="109"/>
+      <c r="BY49" s="109"/>
+      <c r="BZ49" s="109"/>
+      <c r="CA49" s="109"/>
+      <c r="CB49" s="109"/>
+      <c r="CC49" s="109"/>
+      <c r="CD49" s="109"/>
+      <c r="CE49" s="109"/>
+      <c r="CF49" s="109"/>
+      <c r="CG49" s="109"/>
+      <c r="CH49" s="109"/>
+      <c r="CI49" s="109"/>
+      <c r="CJ49" s="109"/>
+      <c r="CK49" s="109"/>
+      <c r="CL49" s="109"/>
+      <c r="CM49" s="109"/>
+      <c r="CN49" s="109"/>
+      <c r="CO49" s="109"/>
+      <c r="CP49" s="109"/>
+      <c r="CQ49" s="109"/>
+      <c r="CR49" s="109"/>
+      <c r="CS49" s="109"/>
+      <c r="CT49" s="109"/>
+      <c r="CU49" s="109"/>
+      <c r="CV49" s="109"/>
+      <c r="CW49" s="109"/>
+      <c r="CX49" s="109"/>
+      <c r="CY49" s="109"/>
+      <c r="CZ49" s="109"/>
+      <c r="DA49" s="109"/>
+      <c r="DB49" s="109"/>
+      <c r="DC49" s="109"/>
+      <c r="DD49" s="109"/>
+      <c r="DE49" s="109"/>
+      <c r="DF49" s="109"/>
+      <c r="DG49" s="109"/>
+      <c r="DH49" s="109"/>
+      <c r="DI49" s="109"/>
     </row>
     <row r="50" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="124"/>
-      <c r="O50" s="124"/>
-      <c r="P50" s="124"/>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="124"/>
-      <c r="S50" s="124"/>
-      <c r="T50" s="124"/>
-      <c r="U50" s="124"/>
-      <c r="V50" s="124"/>
-      <c r="W50" s="124"/>
-      <c r="X50" s="124"/>
-      <c r="Y50" s="124"/>
-      <c r="Z50" s="124"/>
-      <c r="AA50" s="124"/>
-      <c r="AB50" s="124"/>
-      <c r="AC50" s="124"/>
-      <c r="AD50" s="124"/>
-      <c r="AE50" s="124"/>
-      <c r="AF50" s="124"/>
-      <c r="AG50" s="124"/>
-      <c r="AH50" s="124"/>
-      <c r="AI50" s="124"/>
-      <c r="AJ50" s="124"/>
-      <c r="AK50" s="124"/>
-      <c r="AL50" s="124"/>
-      <c r="AM50" s="124"/>
-      <c r="AN50" s="124"/>
-      <c r="AO50" s="124"/>
-      <c r="AP50" s="124"/>
-      <c r="AQ50" s="124"/>
-      <c r="AR50" s="124"/>
-      <c r="AS50" s="124"/>
-      <c r="AT50" s="124"/>
-      <c r="AU50" s="124"/>
-      <c r="AV50" s="124"/>
-      <c r="AW50" s="124"/>
-      <c r="AX50" s="124"/>
-      <c r="AY50" s="124"/>
-      <c r="AZ50" s="124"/>
-      <c r="BA50" s="124"/>
-      <c r="BB50" s="124"/>
-      <c r="BC50" s="124"/>
-      <c r="BD50" s="124"/>
-      <c r="BE50" s="124"/>
-      <c r="BF50" s="124"/>
-      <c r="BG50" s="124"/>
-      <c r="BH50" s="124"/>
-      <c r="BI50" s="124"/>
-      <c r="BJ50" s="124"/>
-      <c r="BK50" s="124"/>
-      <c r="BL50" s="124"/>
-      <c r="BM50" s="124"/>
-      <c r="BN50" s="124"/>
-      <c r="BO50" s="124"/>
-      <c r="BP50" s="124"/>
-      <c r="BQ50" s="124"/>
-      <c r="BR50" s="124"/>
-      <c r="BS50" s="124"/>
-      <c r="BT50" s="124"/>
-      <c r="BU50" s="124"/>
-      <c r="BV50" s="124"/>
-      <c r="BW50" s="124"/>
-      <c r="BX50" s="124"/>
-      <c r="BY50" s="124"/>
-      <c r="BZ50" s="124"/>
-      <c r="CA50" s="124"/>
-      <c r="CB50" s="124"/>
-      <c r="CC50" s="124"/>
-      <c r="CD50" s="124"/>
-      <c r="CE50" s="124"/>
-      <c r="CF50" s="124"/>
-      <c r="CG50" s="124"/>
-      <c r="CH50" s="124"/>
-      <c r="CI50" s="124"/>
-      <c r="CJ50" s="124"/>
-      <c r="CK50" s="124"/>
-      <c r="CL50" s="124"/>
-      <c r="CM50" s="124"/>
-      <c r="CN50" s="124"/>
-      <c r="CO50" s="124"/>
-      <c r="CP50" s="124"/>
-      <c r="CQ50" s="124"/>
-      <c r="CR50" s="124"/>
-      <c r="CS50" s="124"/>
-      <c r="CT50" s="124"/>
-      <c r="CU50" s="124"/>
-      <c r="CV50" s="124"/>
-      <c r="CW50" s="124"/>
-      <c r="CX50" s="124"/>
-      <c r="CY50" s="124"/>
-      <c r="CZ50" s="124"/>
-      <c r="DA50" s="124"/>
-      <c r="DB50" s="124"/>
-      <c r="DC50" s="124"/>
-      <c r="DD50" s="124"/>
-      <c r="DE50" s="124"/>
-      <c r="DF50" s="124"/>
-      <c r="DG50" s="124"/>
-      <c r="DH50" s="124"/>
-      <c r="DI50" s="124"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="109"/>
+      <c r="L50" s="109"/>
+      <c r="M50" s="109"/>
+      <c r="N50" s="109"/>
+      <c r="O50" s="109"/>
+      <c r="P50" s="109"/>
+      <c r="Q50" s="109"/>
+      <c r="R50" s="109"/>
+      <c r="S50" s="109"/>
+      <c r="T50" s="109"/>
+      <c r="U50" s="109"/>
+      <c r="V50" s="109"/>
+      <c r="W50" s="109"/>
+      <c r="X50" s="109"/>
+      <c r="Y50" s="109"/>
+      <c r="Z50" s="109"/>
+      <c r="AA50" s="109"/>
+      <c r="AB50" s="109"/>
+      <c r="AC50" s="109"/>
+      <c r="AD50" s="109"/>
+      <c r="AE50" s="109"/>
+      <c r="AF50" s="109"/>
+      <c r="AG50" s="109"/>
+      <c r="AH50" s="109"/>
+      <c r="AI50" s="109"/>
+      <c r="AJ50" s="109"/>
+      <c r="AK50" s="109"/>
+      <c r="AL50" s="109"/>
+      <c r="AM50" s="109"/>
+      <c r="AN50" s="109"/>
+      <c r="AO50" s="109"/>
+      <c r="AP50" s="109"/>
+      <c r="AQ50" s="109"/>
+      <c r="AR50" s="109"/>
+      <c r="AS50" s="109"/>
+      <c r="AT50" s="109"/>
+      <c r="AU50" s="109"/>
+      <c r="AV50" s="109"/>
+      <c r="AW50" s="109"/>
+      <c r="AX50" s="109"/>
+      <c r="AY50" s="109"/>
+      <c r="AZ50" s="109"/>
+      <c r="BA50" s="109"/>
+      <c r="BB50" s="109"/>
+      <c r="BC50" s="109"/>
+      <c r="BD50" s="109"/>
+      <c r="BE50" s="109"/>
+      <c r="BF50" s="109"/>
+      <c r="BG50" s="109"/>
+      <c r="BH50" s="109"/>
+      <c r="BI50" s="109"/>
+      <c r="BJ50" s="109"/>
+      <c r="BK50" s="109"/>
+      <c r="BL50" s="109"/>
+      <c r="BM50" s="109"/>
+      <c r="BN50" s="109"/>
+      <c r="BO50" s="109"/>
+      <c r="BP50" s="109"/>
+      <c r="BQ50" s="109"/>
+      <c r="BR50" s="109"/>
+      <c r="BS50" s="109"/>
+      <c r="BT50" s="109"/>
+      <c r="BU50" s="109"/>
+      <c r="BV50" s="109"/>
+      <c r="BW50" s="109"/>
+      <c r="BX50" s="109"/>
+      <c r="BY50" s="109"/>
+      <c r="BZ50" s="109"/>
+      <c r="CA50" s="109"/>
+      <c r="CB50" s="109"/>
+      <c r="CC50" s="109"/>
+      <c r="CD50" s="109"/>
+      <c r="CE50" s="109"/>
+      <c r="CF50" s="109"/>
+      <c r="CG50" s="109"/>
+      <c r="CH50" s="109"/>
+      <c r="CI50" s="109"/>
+      <c r="CJ50" s="109"/>
+      <c r="CK50" s="109"/>
+      <c r="CL50" s="109"/>
+      <c r="CM50" s="109"/>
+      <c r="CN50" s="109"/>
+      <c r="CO50" s="109"/>
+      <c r="CP50" s="109"/>
+      <c r="CQ50" s="109"/>
+      <c r="CR50" s="109"/>
+      <c r="CS50" s="109"/>
+      <c r="CT50" s="109"/>
+      <c r="CU50" s="109"/>
+      <c r="CV50" s="109"/>
+      <c r="CW50" s="109"/>
+      <c r="CX50" s="109"/>
+      <c r="CY50" s="109"/>
+      <c r="CZ50" s="109"/>
+      <c r="DA50" s="109"/>
+      <c r="DB50" s="109"/>
+      <c r="DC50" s="109"/>
+      <c r="DD50" s="109"/>
+      <c r="DE50" s="109"/>
+      <c r="DF50" s="109"/>
+      <c r="DG50" s="109"/>
+      <c r="DH50" s="109"/>
+      <c r="DI50" s="109"/>
     </row>
     <row r="51" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="124"/>
-      <c r="M51" s="124"/>
-      <c r="N51" s="124"/>
-      <c r="O51" s="124"/>
-      <c r="P51" s="124"/>
-      <c r="Q51" s="124"/>
-      <c r="R51" s="124"/>
-      <c r="S51" s="124"/>
-      <c r="T51" s="124"/>
-      <c r="U51" s="124"/>
-      <c r="V51" s="124"/>
-      <c r="W51" s="124"/>
-      <c r="X51" s="124"/>
-      <c r="Y51" s="124"/>
-      <c r="Z51" s="124"/>
-      <c r="AA51" s="124"/>
-      <c r="AB51" s="124"/>
-      <c r="AC51" s="124"/>
-      <c r="AD51" s="124"/>
-      <c r="AE51" s="124"/>
-      <c r="AF51" s="124"/>
-      <c r="AG51" s="124"/>
-      <c r="AH51" s="124"/>
-      <c r="AI51" s="124"/>
-      <c r="AJ51" s="124"/>
-      <c r="AK51" s="124"/>
-      <c r="AL51" s="124"/>
-      <c r="AM51" s="124"/>
-      <c r="AN51" s="124"/>
-      <c r="AO51" s="124"/>
-      <c r="AP51" s="124"/>
-      <c r="AQ51" s="124"/>
-      <c r="AR51" s="124"/>
-      <c r="AS51" s="124"/>
-      <c r="AT51" s="124"/>
-      <c r="AU51" s="124"/>
-      <c r="AV51" s="124"/>
-      <c r="AW51" s="124"/>
-      <c r="AX51" s="124"/>
-      <c r="AY51" s="124"/>
-      <c r="AZ51" s="124"/>
-      <c r="BA51" s="124"/>
-      <c r="BB51" s="124"/>
-      <c r="BC51" s="124"/>
-      <c r="BD51" s="124"/>
-      <c r="BE51" s="124"/>
-      <c r="BF51" s="124"/>
-      <c r="BG51" s="124"/>
-      <c r="BH51" s="124"/>
-      <c r="BI51" s="124"/>
-      <c r="BJ51" s="124"/>
-      <c r="BK51" s="124"/>
-      <c r="BL51" s="124"/>
-      <c r="BM51" s="124"/>
-      <c r="BN51" s="124"/>
-      <c r="BO51" s="124"/>
-      <c r="BP51" s="124"/>
-      <c r="BQ51" s="124"/>
-      <c r="BR51" s="124"/>
-      <c r="BS51" s="124"/>
-      <c r="BT51" s="124"/>
-      <c r="BU51" s="124"/>
-      <c r="BV51" s="124"/>
-      <c r="BW51" s="124"/>
-      <c r="BX51" s="124"/>
-      <c r="BY51" s="124"/>
-      <c r="BZ51" s="124"/>
-      <c r="CA51" s="124"/>
-      <c r="CB51" s="124"/>
-      <c r="CC51" s="124"/>
-      <c r="CD51" s="124"/>
-      <c r="CE51" s="124"/>
-      <c r="CF51" s="124"/>
-      <c r="CG51" s="124"/>
-      <c r="CH51" s="124"/>
-      <c r="CI51" s="124"/>
-      <c r="CJ51" s="124"/>
-      <c r="CK51" s="124"/>
-      <c r="CL51" s="124"/>
-      <c r="CM51" s="124"/>
-      <c r="CN51" s="124"/>
-      <c r="CO51" s="124"/>
-      <c r="CP51" s="124"/>
-      <c r="CQ51" s="124"/>
-      <c r="CR51" s="124"/>
-      <c r="CS51" s="124"/>
-      <c r="CT51" s="124"/>
-      <c r="CU51" s="124"/>
-      <c r="CV51" s="124"/>
-      <c r="CW51" s="124"/>
-      <c r="CX51" s="124"/>
-      <c r="CY51" s="124"/>
-      <c r="CZ51" s="124"/>
-      <c r="DA51" s="124"/>
-      <c r="DB51" s="124"/>
-      <c r="DC51" s="124"/>
-      <c r="DD51" s="124"/>
-      <c r="DE51" s="124"/>
-      <c r="DF51" s="124"/>
-      <c r="DG51" s="124"/>
-      <c r="DH51" s="124"/>
-      <c r="DI51" s="124"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="109"/>
+      <c r="L51" s="109"/>
+      <c r="M51" s="109"/>
+      <c r="N51" s="109"/>
+      <c r="O51" s="109"/>
+      <c r="P51" s="109"/>
+      <c r="Q51" s="109"/>
+      <c r="R51" s="109"/>
+      <c r="S51" s="109"/>
+      <c r="T51" s="109"/>
+      <c r="U51" s="109"/>
+      <c r="V51" s="109"/>
+      <c r="W51" s="109"/>
+      <c r="X51" s="109"/>
+      <c r="Y51" s="109"/>
+      <c r="Z51" s="109"/>
+      <c r="AA51" s="109"/>
+      <c r="AB51" s="109"/>
+      <c r="AC51" s="109"/>
+      <c r="AD51" s="109"/>
+      <c r="AE51" s="109"/>
+      <c r="AF51" s="109"/>
+      <c r="AG51" s="109"/>
+      <c r="AH51" s="109"/>
+      <c r="AI51" s="109"/>
+      <c r="AJ51" s="109"/>
+      <c r="AK51" s="109"/>
+      <c r="AL51" s="109"/>
+      <c r="AM51" s="109"/>
+      <c r="AN51" s="109"/>
+      <c r="AO51" s="109"/>
+      <c r="AP51" s="109"/>
+      <c r="AQ51" s="109"/>
+      <c r="AR51" s="109"/>
+      <c r="AS51" s="109"/>
+      <c r="AT51" s="109"/>
+      <c r="AU51" s="109"/>
+      <c r="AV51" s="109"/>
+      <c r="AW51" s="109"/>
+      <c r="AX51" s="109"/>
+      <c r="AY51" s="109"/>
+      <c r="AZ51" s="109"/>
+      <c r="BA51" s="109"/>
+      <c r="BB51" s="109"/>
+      <c r="BC51" s="109"/>
+      <c r="BD51" s="109"/>
+      <c r="BE51" s="109"/>
+      <c r="BF51" s="109"/>
+      <c r="BG51" s="109"/>
+      <c r="BH51" s="109"/>
+      <c r="BI51" s="109"/>
+      <c r="BJ51" s="109"/>
+      <c r="BK51" s="109"/>
+      <c r="BL51" s="109"/>
+      <c r="BM51" s="109"/>
+      <c r="BN51" s="109"/>
+      <c r="BO51" s="109"/>
+      <c r="BP51" s="109"/>
+      <c r="BQ51" s="109"/>
+      <c r="BR51" s="109"/>
+      <c r="BS51" s="109"/>
+      <c r="BT51" s="109"/>
+      <c r="BU51" s="109"/>
+      <c r="BV51" s="109"/>
+      <c r="BW51" s="109"/>
+      <c r="BX51" s="109"/>
+      <c r="BY51" s="109"/>
+      <c r="BZ51" s="109"/>
+      <c r="CA51" s="109"/>
+      <c r="CB51" s="109"/>
+      <c r="CC51" s="109"/>
+      <c r="CD51" s="109"/>
+      <c r="CE51" s="109"/>
+      <c r="CF51" s="109"/>
+      <c r="CG51" s="109"/>
+      <c r="CH51" s="109"/>
+      <c r="CI51" s="109"/>
+      <c r="CJ51" s="109"/>
+      <c r="CK51" s="109"/>
+      <c r="CL51" s="109"/>
+      <c r="CM51" s="109"/>
+      <c r="CN51" s="109"/>
+      <c r="CO51" s="109"/>
+      <c r="CP51" s="109"/>
+      <c r="CQ51" s="109"/>
+      <c r="CR51" s="109"/>
+      <c r="CS51" s="109"/>
+      <c r="CT51" s="109"/>
+      <c r="CU51" s="109"/>
+      <c r="CV51" s="109"/>
+      <c r="CW51" s="109"/>
+      <c r="CX51" s="109"/>
+      <c r="CY51" s="109"/>
+      <c r="CZ51" s="109"/>
+      <c r="DA51" s="109"/>
+      <c r="DB51" s="109"/>
+      <c r="DC51" s="109"/>
+      <c r="DD51" s="109"/>
+      <c r="DE51" s="109"/>
+      <c r="DF51" s="109"/>
+      <c r="DG51" s="109"/>
+      <c r="DH51" s="109"/>
+      <c r="DI51" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="CZ42:DI46"/>
-    <mergeCell ref="CZ47:DI51"/>
-    <mergeCell ref="BB42:BK46"/>
-    <mergeCell ref="BB47:BK51"/>
-    <mergeCell ref="BL42:BU46"/>
-    <mergeCell ref="BL47:BU51"/>
-    <mergeCell ref="BV42:CE46"/>
-    <mergeCell ref="BV47:CE51"/>
-    <mergeCell ref="CF42:CO46"/>
-    <mergeCell ref="CF47:CO51"/>
-    <mergeCell ref="CP42:CY46"/>
-    <mergeCell ref="CP47:CY51"/>
-    <mergeCell ref="D42:M46"/>
-    <mergeCell ref="D47:M51"/>
-    <mergeCell ref="N42:W46"/>
-    <mergeCell ref="N47:W51"/>
-    <mergeCell ref="X42:AG46"/>
-    <mergeCell ref="X47:AG51"/>
-    <mergeCell ref="AH42:AQ46"/>
-    <mergeCell ref="AH47:AQ51"/>
-    <mergeCell ref="AR42:BA46"/>
-    <mergeCell ref="AR47:BA51"/>
-    <mergeCell ref="CS6:CT6"/>
-    <mergeCell ref="CW6:CX6"/>
-    <mergeCell ref="DF2:DG3"/>
-    <mergeCell ref="DC6:DD6"/>
-    <mergeCell ref="DG6:DH6"/>
-    <mergeCell ref="CV2:CW3"/>
-    <mergeCell ref="CX2:CY3"/>
-    <mergeCell ref="CS4:CT4"/>
-    <mergeCell ref="CW4:CX4"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="DH2:DI3"/>
-    <mergeCell ref="DC4:DD4"/>
-    <mergeCell ref="DG4:DH4"/>
-    <mergeCell ref="DC5:DD5"/>
-    <mergeCell ref="DG5:DH5"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CC6:CD6"/>
-    <mergeCell ref="CL2:CM3"/>
-    <mergeCell ref="CN2:CO3"/>
-    <mergeCell ref="CI4:CJ4"/>
-    <mergeCell ref="CM4:CN4"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CI6:CJ6"/>
-    <mergeCell ref="CM6:CN6"/>
-    <mergeCell ref="CB2:CC3"/>
-    <mergeCell ref="CD2:CE3"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BR2:BS3"/>
-    <mergeCell ref="BT2:BU3"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="BH2:BI3"/>
-    <mergeCell ref="BJ2:BK3"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AX2:AY3"/>
-    <mergeCell ref="AZ2:BA3"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AD2:AE3"/>
-    <mergeCell ref="AF2:AG3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="U6:V6"/>
@@ -14055,6 +13995,100 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="L2:M3"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AD2:AE3"/>
+    <mergeCell ref="AF2:AG3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AX2:AY3"/>
+    <mergeCell ref="AZ2:BA3"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BR2:BS3"/>
+    <mergeCell ref="BT2:BU3"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BH2:BI3"/>
+    <mergeCell ref="BJ2:BK3"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CC6:CD6"/>
+    <mergeCell ref="CL2:CM3"/>
+    <mergeCell ref="CN2:CO3"/>
+    <mergeCell ref="CI4:CJ4"/>
+    <mergeCell ref="CM4:CN4"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CI6:CJ6"/>
+    <mergeCell ref="CM6:CN6"/>
+    <mergeCell ref="CB2:CC3"/>
+    <mergeCell ref="CD2:CE3"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CS6:CT6"/>
+    <mergeCell ref="CW6:CX6"/>
+    <mergeCell ref="DF2:DG3"/>
+    <mergeCell ref="DC6:DD6"/>
+    <mergeCell ref="DG6:DH6"/>
+    <mergeCell ref="CV2:CW3"/>
+    <mergeCell ref="CX2:CY3"/>
+    <mergeCell ref="CS4:CT4"/>
+    <mergeCell ref="CW4:CX4"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="DH2:DI3"/>
+    <mergeCell ref="DC4:DD4"/>
+    <mergeCell ref="DG4:DH4"/>
+    <mergeCell ref="DC5:DD5"/>
+    <mergeCell ref="DG5:DH5"/>
+    <mergeCell ref="D42:M46"/>
+    <mergeCell ref="D47:M51"/>
+    <mergeCell ref="N42:W46"/>
+    <mergeCell ref="N47:W51"/>
+    <mergeCell ref="X42:AG46"/>
+    <mergeCell ref="X47:AG51"/>
+    <mergeCell ref="AH42:AQ46"/>
+    <mergeCell ref="AH47:AQ51"/>
+    <mergeCell ref="AR42:BA46"/>
+    <mergeCell ref="AR47:BA51"/>
+    <mergeCell ref="CZ42:DI46"/>
+    <mergeCell ref="CZ47:DI51"/>
+    <mergeCell ref="BB42:BK46"/>
+    <mergeCell ref="BB47:BK51"/>
+    <mergeCell ref="BL42:BU46"/>
+    <mergeCell ref="BL47:BU51"/>
+    <mergeCell ref="BV42:CE46"/>
+    <mergeCell ref="BV47:CE51"/>
+    <mergeCell ref="CF42:CO46"/>
+    <mergeCell ref="CF47:CO51"/>
+    <mergeCell ref="CP42:CY46"/>
+    <mergeCell ref="CP47:CY51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14072,6 +14106,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000AD9CF6C18809D409E0B63A8FF3E1B41" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="217b736c962d345a1faef7cef7b5d759">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a77f6bfd898681e5a12a068144fab656" ns2:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -14233,22 +14282,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101401F0-266B-4560-B9EB-92F0EC712594}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A48B95A3-8CBE-4085-A074-1D1F0B8C67A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14264,28 +14322,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101401F0-266B-4560-B9EB-92F0EC712594}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>